--- a/data/JCOMSS/questions-skill_model2a.xlsx
+++ b/data/JCOMSS/questions-skill_model2a.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgia/repositories/CAT-unplugged/model/data/JCOMSS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgia/repositories/virtual-CAT-itas/data/JCOMSS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D73722-3279-CF47-B023-4D00CA290CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95352BE-9C67-FD4E-BBA4-7B3AB98194D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10920" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{3D5E00E8-EA45-C34D-85AA-17AD78DA61C2}"/>
+    <workbookView xWindow="-10820" yWindow="-11400" windowWidth="38400" windowHeight="21100" xr2:uid="{3D5E00E8-EA45-C34D-85AA-17AD78DA61C2}"/>
   </bookViews>
   <sheets>
     <sheet name="question-skills-complex" sheetId="17" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="93">
   <si>
     <t>Question_ID</t>
   </si>
@@ -220,6 +220,99 @@
   </si>
   <si>
     <t>paintDot</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>E24</t>
+  </si>
+  <si>
+    <t>E25</t>
+  </si>
+  <si>
+    <t>E26</t>
+  </si>
+  <si>
+    <t>E27</t>
+  </si>
+  <si>
+    <t>E28</t>
+  </si>
+  <si>
+    <t>E29</t>
+  </si>
+  <si>
+    <t>E30</t>
+  </si>
+  <si>
+    <t>E31</t>
   </si>
 </sst>
 </file>
@@ -529,9 +622,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,6 +629,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -882,10 +975,10 @@
   <dimension ref="A1:NI588"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="W460" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AF497" sqref="AF497"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4:AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1481,36 +1574,99 @@
       <c r="A4" s="51"/>
       <c r="B4" s="51"/>
       <c r="C4" s="51"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
+      <c r="D4" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U4" t="s">
+        <v>79</v>
+      </c>
+      <c r="V4" t="s">
+        <v>80</v>
+      </c>
+      <c r="W4" t="s">
+        <v>81</v>
+      </c>
+      <c r="X4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>92</v>
+      </c>
       <c r="AI4" s="15" t="s">
         <v>13</v>
       </c>
@@ -1892,7 +2048,7 @@
       <c r="NI5" s="4"/>
     </row>
     <row r="6" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="16">
         <v>2</v>
       </c>
@@ -1942,7 +2098,7 @@
       <c r="AQ6" s="27"/>
     </row>
     <row r="7" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="16">
         <v>3</v>
       </c>
@@ -1992,7 +2148,7 @@
       <c r="AQ7" s="27"/>
     </row>
     <row r="8" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="16">
         <v>4</v>
       </c>
@@ -2042,7 +2198,7 @@
       <c r="AQ8" s="27"/>
     </row>
     <row r="9" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="16">
         <v>5</v>
       </c>
@@ -2092,7 +2248,7 @@
       <c r="AQ9" s="27"/>
     </row>
     <row r="10" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="16">
         <v>6</v>
       </c>
@@ -2142,7 +2298,7 @@
       <c r="AQ10" s="27"/>
     </row>
     <row r="11" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="16">
         <v>7</v>
       </c>
@@ -2192,7 +2348,7 @@
       <c r="AQ11" s="27"/>
     </row>
     <row r="12" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="16">
         <v>8</v>
       </c>
@@ -2242,7 +2398,7 @@
       <c r="AQ12" s="27"/>
     </row>
     <row r="13" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="16">
         <v>9</v>
       </c>
@@ -2292,7 +2448,7 @@
       <c r="AQ13" s="27"/>
     </row>
     <row r="14" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="16">
         <v>10</v>
       </c>
@@ -2342,7 +2498,7 @@
       <c r="AQ14" s="27"/>
     </row>
     <row r="15" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="16">
         <v>11</v>
       </c>
@@ -2392,7 +2548,7 @@
       <c r="AQ15" s="27"/>
     </row>
     <row r="16" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="16">
         <v>12</v>
       </c>
@@ -2442,7 +2598,7 @@
       <c r="AQ16" s="27"/>
     </row>
     <row r="17" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="16">
         <v>13</v>
       </c>
@@ -2492,7 +2648,7 @@
       <c r="AQ17" s="27"/>
     </row>
     <row r="18" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="16">
         <v>14</v>
       </c>
@@ -2542,7 +2698,7 @@
       <c r="AQ18" s="27"/>
     </row>
     <row r="19" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="44"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="16">
         <v>15</v>
       </c>
@@ -2592,7 +2748,7 @@
       <c r="AQ19" s="27"/>
     </row>
     <row r="20" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="16">
         <v>16</v>
       </c>
@@ -2642,7 +2798,7 @@
       <c r="AQ20" s="27"/>
     </row>
     <row r="21" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="16">
         <v>17</v>
       </c>
@@ -2692,7 +2848,7 @@
       <c r="AQ21" s="27"/>
     </row>
     <row r="22" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="16">
         <v>18</v>
       </c>
@@ -2742,7 +2898,7 @@
       <c r="AQ22" s="27"/>
     </row>
     <row r="23" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="16">
         <v>19</v>
       </c>
@@ -2792,7 +2948,7 @@
       <c r="AQ23" s="27"/>
     </row>
     <row r="24" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="44"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="16">
         <v>20</v>
       </c>
@@ -2842,7 +2998,7 @@
       <c r="AQ24" s="27"/>
     </row>
     <row r="25" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="44"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="16">
         <v>21</v>
       </c>
@@ -2892,7 +3048,7 @@
       <c r="AQ25" s="27"/>
     </row>
     <row r="26" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="44"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="16">
         <v>22</v>
       </c>
@@ -2942,7 +3098,7 @@
       <c r="AQ26" s="27"/>
     </row>
     <row r="27" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="16">
         <v>23</v>
       </c>
@@ -2992,7 +3148,7 @@
       <c r="AQ27" s="27"/>
     </row>
     <row r="28" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="44"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="16">
         <v>24</v>
       </c>
@@ -3042,7 +3198,7 @@
       <c r="AQ28" s="27"/>
     </row>
     <row r="29" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="44"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="16">
         <v>25</v>
       </c>
@@ -3092,7 +3248,7 @@
       <c r="AQ29" s="27"/>
     </row>
     <row r="30" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="16">
         <v>26</v>
       </c>
@@ -3142,7 +3298,7 @@
       <c r="AQ30" s="27"/>
     </row>
     <row r="31" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="16">
         <v>27</v>
       </c>
@@ -3192,7 +3348,7 @@
       <c r="AQ31" s="27"/>
     </row>
     <row r="32" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="16">
         <v>28</v>
       </c>
@@ -3242,7 +3398,7 @@
       <c r="AQ32" s="27"/>
     </row>
     <row r="33" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="16">
         <v>29</v>
       </c>
@@ -3292,7 +3448,7 @@
       <c r="AQ33" s="27"/>
     </row>
     <row r="34" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="44"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="16">
         <v>30</v>
       </c>
@@ -3342,7 +3498,7 @@
       <c r="AQ34" s="27"/>
     </row>
     <row r="35" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="44"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="16">
         <v>31</v>
       </c>
@@ -3392,7 +3548,7 @@
       <c r="AQ35" s="43"/>
     </row>
     <row r="36" spans="1:373" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="21">
         <v>32</v>
       </c>
@@ -3789,7 +3945,7 @@
       <c r="NI36" s="4"/>
     </row>
     <row r="37" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="44"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="16">
         <v>33</v>
       </c>
@@ -3856,7 +4012,7 @@
       </c>
     </row>
     <row r="38" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="44"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="16">
         <v>34</v>
       </c>
@@ -3923,7 +4079,7 @@
       </c>
     </row>
     <row r="39" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="44"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="16">
         <v>35</v>
       </c>
@@ -3990,7 +4146,7 @@
       </c>
     </row>
     <row r="40" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="44"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="16">
         <v>36</v>
       </c>
@@ -4057,7 +4213,7 @@
       </c>
     </row>
     <row r="41" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="44"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="16">
         <v>37</v>
       </c>
@@ -4124,7 +4280,7 @@
       </c>
     </row>
     <row r="42" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="44"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="16">
         <v>38</v>
       </c>
@@ -4191,7 +4347,7 @@
       </c>
     </row>
     <row r="43" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="44"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="16">
         <v>39</v>
       </c>
@@ -4258,7 +4414,7 @@
       </c>
     </row>
     <row r="44" spans="1:373" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="44"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="16">
         <v>40</v>
       </c>
@@ -4655,7 +4811,7 @@
       <c r="NI44" s="4"/>
     </row>
     <row r="45" spans="1:373" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="45">
+      <c r="A45" s="44">
         <v>2</v>
       </c>
       <c r="B45" s="21">
@@ -5037,7 +5193,7 @@
       <c r="NI45" s="4"/>
     </row>
     <row r="46" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="46"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="16">
         <v>2</v>
       </c>
@@ -5087,7 +5243,7 @@
       <c r="AQ46" s="27"/>
     </row>
     <row r="47" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="46"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="16">
         <v>3</v>
       </c>
@@ -5137,7 +5293,7 @@
       <c r="AQ47" s="27"/>
     </row>
     <row r="48" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="46"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="16">
         <v>4</v>
       </c>
@@ -5187,7 +5343,7 @@
       <c r="AQ48" s="27"/>
     </row>
     <row r="49" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="46"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="16">
         <v>5</v>
       </c>
@@ -5237,7 +5393,7 @@
       <c r="AQ49" s="27"/>
     </row>
     <row r="50" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="46"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="16">
         <v>6</v>
       </c>
@@ -5287,7 +5443,7 @@
       <c r="AQ50" s="27"/>
     </row>
     <row r="51" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="46"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="16">
         <v>7</v>
       </c>
@@ -5337,7 +5493,7 @@
       <c r="AQ51" s="27"/>
     </row>
     <row r="52" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="46"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="16">
         <v>8</v>
       </c>
@@ -5387,7 +5543,7 @@
       <c r="AQ52" s="27"/>
     </row>
     <row r="53" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="46"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="16">
         <v>9</v>
       </c>
@@ -5437,7 +5593,7 @@
       <c r="AQ53" s="27"/>
     </row>
     <row r="54" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="46"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="16">
         <v>10</v>
       </c>
@@ -5487,7 +5643,7 @@
       <c r="AQ54" s="27"/>
     </row>
     <row r="55" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="46"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="16">
         <v>11</v>
       </c>
@@ -5537,7 +5693,7 @@
       <c r="AQ55" s="27"/>
     </row>
     <row r="56" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="46"/>
+      <c r="A56" s="45"/>
       <c r="B56" s="16">
         <v>12</v>
       </c>
@@ -5587,7 +5743,7 @@
       <c r="AQ56" s="27"/>
     </row>
     <row r="57" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="46"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="16">
         <v>13</v>
       </c>
@@ -5637,7 +5793,7 @@
       <c r="AQ57" s="27"/>
     </row>
     <row r="58" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="46"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="16">
         <v>14</v>
       </c>
@@ -5687,7 +5843,7 @@
       <c r="AQ58" s="27"/>
     </row>
     <row r="59" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="46"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="16">
         <v>15</v>
       </c>
@@ -5737,7 +5893,7 @@
       <c r="AQ59" s="27"/>
     </row>
     <row r="60" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="46"/>
+      <c r="A60" s="45"/>
       <c r="B60" s="16">
         <v>16</v>
       </c>
@@ -5787,7 +5943,7 @@
       <c r="AQ60" s="27"/>
     </row>
     <row r="61" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="46"/>
+      <c r="A61" s="45"/>
       <c r="B61" s="16">
         <v>17</v>
       </c>
@@ -5837,7 +5993,7 @@
       <c r="AQ61" s="27"/>
     </row>
     <row r="62" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="46"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="16">
         <v>18</v>
       </c>
@@ -5887,7 +6043,7 @@
       <c r="AQ62" s="27"/>
     </row>
     <row r="63" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="46"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="16">
         <v>19</v>
       </c>
@@ -5937,7 +6093,7 @@
       <c r="AQ63" s="27"/>
     </row>
     <row r="64" spans="1:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="46"/>
+      <c r="A64" s="45"/>
       <c r="B64" s="16">
         <v>20</v>
       </c>
@@ -5987,7 +6143,7 @@
       <c r="AQ64" s="27"/>
     </row>
     <row r="65" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="46"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="16">
         <v>21</v>
       </c>
@@ -6037,7 +6193,7 @@
       <c r="AQ65" s="27"/>
     </row>
     <row r="66" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="46"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="16">
         <v>22</v>
       </c>
@@ -6087,7 +6243,7 @@
       <c r="AQ66" s="27"/>
     </row>
     <row r="67" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="46"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="16">
         <v>23</v>
       </c>
@@ -6137,7 +6293,7 @@
       <c r="AQ67" s="27"/>
     </row>
     <row r="68" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="46"/>
+      <c r="A68" s="45"/>
       <c r="B68" s="16">
         <v>24</v>
       </c>
@@ -6187,7 +6343,7 @@
       <c r="AQ68" s="27"/>
     </row>
     <row r="69" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="46"/>
+      <c r="A69" s="45"/>
       <c r="B69" s="16">
         <v>25</v>
       </c>
@@ -6237,7 +6393,7 @@
       <c r="AQ69" s="27"/>
     </row>
     <row r="70" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="46"/>
+      <c r="A70" s="45"/>
       <c r="B70" s="16">
         <v>26</v>
       </c>
@@ -6287,7 +6443,7 @@
       <c r="AQ70" s="27"/>
     </row>
     <row r="71" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="46"/>
+      <c r="A71" s="45"/>
       <c r="B71" s="16">
         <v>27</v>
       </c>
@@ -6337,7 +6493,7 @@
       <c r="AQ71" s="27"/>
     </row>
     <row r="72" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="46"/>
+      <c r="A72" s="45"/>
       <c r="B72" s="16">
         <v>28</v>
       </c>
@@ -6387,7 +6543,7 @@
       <c r="AQ72" s="27"/>
     </row>
     <row r="73" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="46"/>
+      <c r="A73" s="45"/>
       <c r="B73" s="16">
         <v>29</v>
       </c>
@@ -6437,7 +6593,7 @@
       <c r="AQ73" s="27"/>
     </row>
     <row r="74" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="46"/>
+      <c r="A74" s="45"/>
       <c r="B74" s="16">
         <v>30</v>
       </c>
@@ -6487,7 +6643,7 @@
       <c r="AQ74" s="27"/>
     </row>
     <row r="75" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="46"/>
+      <c r="A75" s="45"/>
       <c r="B75" s="16">
         <v>31</v>
       </c>
@@ -6537,7 +6693,7 @@
       <c r="AQ75" s="43"/>
     </row>
     <row r="76" spans="1:373" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="46"/>
+      <c r="A76" s="45"/>
       <c r="B76" s="21">
         <v>32</v>
       </c>
@@ -6934,7 +7090,7 @@
       <c r="NI76" s="4"/>
     </row>
     <row r="77" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="46"/>
+      <c r="A77" s="45"/>
       <c r="B77" s="16">
         <v>33</v>
       </c>
@@ -7001,7 +7157,7 @@
       </c>
     </row>
     <row r="78" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="46"/>
+      <c r="A78" s="45"/>
       <c r="B78" s="16">
         <v>34</v>
       </c>
@@ -7068,7 +7224,7 @@
       </c>
     </row>
     <row r="79" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="46"/>
+      <c r="A79" s="45"/>
       <c r="B79" s="16">
         <v>35</v>
       </c>
@@ -7135,7 +7291,7 @@
       </c>
     </row>
     <row r="80" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="46"/>
+      <c r="A80" s="45"/>
       <c r="B80" s="16">
         <v>36</v>
       </c>
@@ -7202,7 +7358,7 @@
       </c>
     </row>
     <row r="81" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="46"/>
+      <c r="A81" s="45"/>
       <c r="B81" s="16">
         <v>37</v>
       </c>
@@ -7269,7 +7425,7 @@
       </c>
     </row>
     <row r="82" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="46"/>
+      <c r="A82" s="45"/>
       <c r="B82" s="16">
         <v>38</v>
       </c>
@@ -7336,7 +7492,7 @@
       </c>
     </row>
     <row r="83" spans="1:373" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="46"/>
+      <c r="A83" s="45"/>
       <c r="B83" s="16">
         <v>39</v>
       </c>
@@ -7403,7 +7559,7 @@
       </c>
     </row>
     <row r="84" spans="1:373" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="47"/>
+      <c r="A84" s="46"/>
       <c r="B84" s="29">
         <v>40</v>
       </c>
@@ -7800,7 +7956,7 @@
       <c r="NI84" s="4"/>
     </row>
     <row r="85" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A85" s="44">
+      <c r="A85" s="47">
         <v>3</v>
       </c>
       <c r="B85" s="16">
@@ -7852,7 +8008,7 @@
       <c r="AQ85" s="28"/>
     </row>
     <row r="86" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A86" s="44"/>
+      <c r="A86" s="47"/>
       <c r="B86" s="16">
         <v>2</v>
       </c>
@@ -7902,7 +8058,7 @@
       <c r="AQ86" s="27"/>
     </row>
     <row r="87" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A87" s="44"/>
+      <c r="A87" s="47"/>
       <c r="B87" s="16">
         <v>3</v>
       </c>
@@ -7952,7 +8108,7 @@
       <c r="AQ87" s="27"/>
     </row>
     <row r="88" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A88" s="44"/>
+      <c r="A88" s="47"/>
       <c r="B88" s="16">
         <v>4</v>
       </c>
@@ -8002,7 +8158,7 @@
       <c r="AQ88" s="27"/>
     </row>
     <row r="89" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A89" s="44"/>
+      <c r="A89" s="47"/>
       <c r="B89" s="16">
         <v>5</v>
       </c>
@@ -8052,7 +8208,7 @@
       <c r="AQ89" s="27"/>
     </row>
     <row r="90" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A90" s="44"/>
+      <c r="A90" s="47"/>
       <c r="B90" s="16">
         <v>6</v>
       </c>
@@ -8102,7 +8258,7 @@
       <c r="AQ90" s="27"/>
     </row>
     <row r="91" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A91" s="44"/>
+      <c r="A91" s="47"/>
       <c r="B91" s="16">
         <v>7</v>
       </c>
@@ -8152,7 +8308,7 @@
       <c r="AQ91" s="27"/>
     </row>
     <row r="92" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A92" s="44"/>
+      <c r="A92" s="47"/>
       <c r="B92" s="16">
         <v>8</v>
       </c>
@@ -8202,7 +8358,7 @@
       <c r="AQ92" s="27"/>
     </row>
     <row r="93" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A93" s="44"/>
+      <c r="A93" s="47"/>
       <c r="B93" s="16">
         <v>9</v>
       </c>
@@ -8252,7 +8408,7 @@
       <c r="AQ93" s="27"/>
     </row>
     <row r="94" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A94" s="44"/>
+      <c r="A94" s="47"/>
       <c r="B94" s="16">
         <v>10</v>
       </c>
@@ -8302,7 +8458,7 @@
       <c r="AQ94" s="27"/>
     </row>
     <row r="95" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A95" s="44"/>
+      <c r="A95" s="47"/>
       <c r="B95" s="16">
         <v>11</v>
       </c>
@@ -8352,7 +8508,7 @@
       <c r="AQ95" s="27"/>
     </row>
     <row r="96" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A96" s="44"/>
+      <c r="A96" s="47"/>
       <c r="B96" s="16">
         <v>12</v>
       </c>
@@ -8402,7 +8558,7 @@
       <c r="AQ96" s="27"/>
     </row>
     <row r="97" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A97" s="44"/>
+      <c r="A97" s="47"/>
       <c r="B97" s="16">
         <v>13</v>
       </c>
@@ -8452,7 +8608,7 @@
       <c r="AQ97" s="27"/>
     </row>
     <row r="98" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A98" s="44"/>
+      <c r="A98" s="47"/>
       <c r="B98" s="16">
         <v>14</v>
       </c>
@@ -8502,7 +8658,7 @@
       <c r="AQ98" s="27"/>
     </row>
     <row r="99" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A99" s="44"/>
+      <c r="A99" s="47"/>
       <c r="B99" s="16">
         <v>15</v>
       </c>
@@ -8552,7 +8708,7 @@
       <c r="AQ99" s="27"/>
     </row>
     <row r="100" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A100" s="44"/>
+      <c r="A100" s="47"/>
       <c r="B100" s="16">
         <v>16</v>
       </c>
@@ -8602,7 +8758,7 @@
       <c r="AQ100" s="27"/>
     </row>
     <row r="101" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A101" s="44"/>
+      <c r="A101" s="47"/>
       <c r="B101" s="16">
         <v>17</v>
       </c>
@@ -8652,7 +8808,7 @@
       <c r="AQ101" s="27"/>
     </row>
     <row r="102" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A102" s="44"/>
+      <c r="A102" s="47"/>
       <c r="B102" s="16">
         <v>18</v>
       </c>
@@ -8702,7 +8858,7 @@
       <c r="AQ102" s="27"/>
     </row>
     <row r="103" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A103" s="44"/>
+      <c r="A103" s="47"/>
       <c r="B103" s="16">
         <v>19</v>
       </c>
@@ -8752,7 +8908,7 @@
       <c r="AQ103" s="27"/>
     </row>
     <row r="104" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A104" s="44"/>
+      <c r="A104" s="47"/>
       <c r="B104" s="16">
         <v>20</v>
       </c>
@@ -8802,7 +8958,7 @@
       <c r="AQ104" s="27"/>
     </row>
     <row r="105" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A105" s="44"/>
+      <c r="A105" s="47"/>
       <c r="B105" s="16">
         <v>21</v>
       </c>
@@ -8852,7 +9008,7 @@
       <c r="AQ105" s="27"/>
     </row>
     <row r="106" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A106" s="44"/>
+      <c r="A106" s="47"/>
       <c r="B106" s="16">
         <v>22</v>
       </c>
@@ -8902,7 +9058,7 @@
       <c r="AQ106" s="27"/>
     </row>
     <row r="107" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A107" s="44"/>
+      <c r="A107" s="47"/>
       <c r="B107" s="16">
         <v>23</v>
       </c>
@@ -8952,7 +9108,7 @@
       <c r="AQ107" s="27"/>
     </row>
     <row r="108" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A108" s="44"/>
+      <c r="A108" s="47"/>
       <c r="B108" s="16">
         <v>24</v>
       </c>
@@ -9002,7 +9158,7 @@
       <c r="AQ108" s="27"/>
     </row>
     <row r="109" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A109" s="44"/>
+      <c r="A109" s="47"/>
       <c r="B109" s="16">
         <v>25</v>
       </c>
@@ -9052,7 +9208,7 @@
       <c r="AQ109" s="27"/>
     </row>
     <row r="110" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A110" s="44"/>
+      <c r="A110" s="47"/>
       <c r="B110" s="16">
         <v>26</v>
       </c>
@@ -9102,7 +9258,7 @@
       <c r="AQ110" s="27"/>
     </row>
     <row r="111" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A111" s="44"/>
+      <c r="A111" s="47"/>
       <c r="B111" s="16">
         <v>27</v>
       </c>
@@ -9152,7 +9308,7 @@
       <c r="AQ111" s="27"/>
     </row>
     <row r="112" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A112" s="44"/>
+      <c r="A112" s="47"/>
       <c r="B112" s="16">
         <v>28</v>
       </c>
@@ -9202,7 +9358,7 @@
       <c r="AQ112" s="27"/>
     </row>
     <row r="113" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A113" s="44"/>
+      <c r="A113" s="47"/>
       <c r="B113" s="16">
         <v>29</v>
       </c>
@@ -9252,7 +9408,7 @@
       <c r="AQ113" s="27"/>
     </row>
     <row r="114" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A114" s="44"/>
+      <c r="A114" s="47"/>
       <c r="B114" s="16">
         <v>30</v>
       </c>
@@ -9302,7 +9458,7 @@
       <c r="AQ114" s="27"/>
     </row>
     <row r="115" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A115" s="44"/>
+      <c r="A115" s="47"/>
       <c r="B115" s="16">
         <v>31</v>
       </c>
@@ -9352,7 +9508,7 @@
       <c r="AQ115" s="43"/>
     </row>
     <row r="116" spans="1:373" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="44"/>
+      <c r="A116" s="47"/>
       <c r="B116" s="21">
         <v>32</v>
       </c>
@@ -9749,7 +9905,7 @@
       <c r="NI116" s="4"/>
     </row>
     <row r="117" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A117" s="44"/>
+      <c r="A117" s="47"/>
       <c r="B117" s="16">
         <v>33</v>
       </c>
@@ -9816,7 +9972,7 @@
       </c>
     </row>
     <row r="118" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A118" s="44"/>
+      <c r="A118" s="47"/>
       <c r="B118" s="16">
         <v>34</v>
       </c>
@@ -9883,7 +10039,7 @@
       </c>
     </row>
     <row r="119" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A119" s="44"/>
+      <c r="A119" s="47"/>
       <c r="B119" s="16">
         <v>35</v>
       </c>
@@ -9950,7 +10106,7 @@
       </c>
     </row>
     <row r="120" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A120" s="44"/>
+      <c r="A120" s="47"/>
       <c r="B120" s="16">
         <v>36</v>
       </c>
@@ -10017,7 +10173,7 @@
       </c>
     </row>
     <row r="121" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A121" s="44"/>
+      <c r="A121" s="47"/>
       <c r="B121" s="16">
         <v>37</v>
       </c>
@@ -10084,7 +10240,7 @@
       </c>
     </row>
     <row r="122" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A122" s="44"/>
+      <c r="A122" s="47"/>
       <c r="B122" s="16">
         <v>38</v>
       </c>
@@ -10151,7 +10307,7 @@
       </c>
     </row>
     <row r="123" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A123" s="44"/>
+      <c r="A123" s="47"/>
       <c r="B123" s="16">
         <v>39</v>
       </c>
@@ -10218,7 +10374,7 @@
       </c>
     </row>
     <row r="124" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A124" s="44"/>
+      <c r="A124" s="47"/>
       <c r="B124" s="16">
         <v>40</v>
       </c>
@@ -10285,7 +10441,7 @@
       </c>
     </row>
     <row r="125" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A125" s="45">
+      <c r="A125" s="44">
         <v>4</v>
       </c>
       <c r="B125" s="21">
@@ -10337,7 +10493,7 @@
       <c r="AQ125" s="26"/>
     </row>
     <row r="126" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A126" s="46"/>
+      <c r="A126" s="45"/>
       <c r="B126" s="16">
         <v>2</v>
       </c>
@@ -10387,7 +10543,7 @@
       <c r="AQ126" s="27"/>
     </row>
     <row r="127" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A127" s="46"/>
+      <c r="A127" s="45"/>
       <c r="B127" s="16">
         <v>3</v>
       </c>
@@ -10437,7 +10593,7 @@
       <c r="AQ127" s="27"/>
     </row>
     <row r="128" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A128" s="46"/>
+      <c r="A128" s="45"/>
       <c r="B128" s="16">
         <v>4</v>
       </c>
@@ -10487,7 +10643,7 @@
       <c r="AQ128" s="27"/>
     </row>
     <row r="129" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A129" s="46"/>
+      <c r="A129" s="45"/>
       <c r="B129" s="16">
         <v>5</v>
       </c>
@@ -10537,7 +10693,7 @@
       <c r="AQ129" s="27"/>
     </row>
     <row r="130" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A130" s="46"/>
+      <c r="A130" s="45"/>
       <c r="B130" s="16">
         <v>6</v>
       </c>
@@ -10587,7 +10743,7 @@
       <c r="AQ130" s="27"/>
     </row>
     <row r="131" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A131" s="46"/>
+      <c r="A131" s="45"/>
       <c r="B131" s="16">
         <v>7</v>
       </c>
@@ -10637,7 +10793,7 @@
       <c r="AQ131" s="27"/>
     </row>
     <row r="132" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A132" s="46"/>
+      <c r="A132" s="45"/>
       <c r="B132" s="16">
         <v>8</v>
       </c>
@@ -10687,7 +10843,7 @@
       <c r="AQ132" s="27"/>
     </row>
     <row r="133" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A133" s="46"/>
+      <c r="A133" s="45"/>
       <c r="B133" s="16">
         <v>9</v>
       </c>
@@ -10737,7 +10893,7 @@
       <c r="AQ133" s="27"/>
     </row>
     <row r="134" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A134" s="46"/>
+      <c r="A134" s="45"/>
       <c r="B134" s="16">
         <v>10</v>
       </c>
@@ -10787,7 +10943,7 @@
       <c r="AQ134" s="27"/>
     </row>
     <row r="135" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A135" s="46"/>
+      <c r="A135" s="45"/>
       <c r="B135" s="16">
         <v>11</v>
       </c>
@@ -10837,7 +10993,7 @@
       <c r="AQ135" s="27"/>
     </row>
     <row r="136" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A136" s="46"/>
+      <c r="A136" s="45"/>
       <c r="B136" s="16">
         <v>12</v>
       </c>
@@ -10887,7 +11043,7 @@
       <c r="AQ136" s="27"/>
     </row>
     <row r="137" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A137" s="46"/>
+      <c r="A137" s="45"/>
       <c r="B137" s="16">
         <v>13</v>
       </c>
@@ -10937,7 +11093,7 @@
       <c r="AQ137" s="27"/>
     </row>
     <row r="138" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A138" s="46"/>
+      <c r="A138" s="45"/>
       <c r="B138" s="16">
         <v>14</v>
       </c>
@@ -10987,7 +11143,7 @@
       <c r="AQ138" s="27"/>
     </row>
     <row r="139" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A139" s="46"/>
+      <c r="A139" s="45"/>
       <c r="B139" s="16">
         <v>15</v>
       </c>
@@ -11037,7 +11193,7 @@
       <c r="AQ139" s="27"/>
     </row>
     <row r="140" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A140" s="46"/>
+      <c r="A140" s="45"/>
       <c r="B140" s="16">
         <v>16</v>
       </c>
@@ -11087,7 +11243,7 @@
       <c r="AQ140" s="27"/>
     </row>
     <row r="141" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A141" s="46"/>
+      <c r="A141" s="45"/>
       <c r="B141" s="16">
         <v>17</v>
       </c>
@@ -11137,7 +11293,7 @@
       <c r="AQ141" s="27"/>
     </row>
     <row r="142" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A142" s="46"/>
+      <c r="A142" s="45"/>
       <c r="B142" s="16">
         <v>18</v>
       </c>
@@ -11187,7 +11343,7 @@
       <c r="AQ142" s="27"/>
     </row>
     <row r="143" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A143" s="46"/>
+      <c r="A143" s="45"/>
       <c r="B143" s="16">
         <v>19</v>
       </c>
@@ -11237,7 +11393,7 @@
       <c r="AQ143" s="27"/>
     </row>
     <row r="144" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A144" s="46"/>
+      <c r="A144" s="45"/>
       <c r="B144" s="16">
         <v>20</v>
       </c>
@@ -11287,7 +11443,7 @@
       <c r="AQ144" s="27"/>
     </row>
     <row r="145" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A145" s="46"/>
+      <c r="A145" s="45"/>
       <c r="B145" s="16">
         <v>21</v>
       </c>
@@ -11337,7 +11493,7 @@
       <c r="AQ145" s="27"/>
     </row>
     <row r="146" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A146" s="46"/>
+      <c r="A146" s="45"/>
       <c r="B146" s="16">
         <v>22</v>
       </c>
@@ -11387,7 +11543,7 @@
       <c r="AQ146" s="27"/>
     </row>
     <row r="147" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A147" s="46"/>
+      <c r="A147" s="45"/>
       <c r="B147" s="16">
         <v>23</v>
       </c>
@@ -11437,7 +11593,7 @@
       <c r="AQ147" s="27"/>
     </row>
     <row r="148" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A148" s="46"/>
+      <c r="A148" s="45"/>
       <c r="B148" s="16">
         <v>24</v>
       </c>
@@ -11487,7 +11643,7 @@
       <c r="AQ148" s="27"/>
     </row>
     <row r="149" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A149" s="46"/>
+      <c r="A149" s="45"/>
       <c r="B149" s="16">
         <v>25</v>
       </c>
@@ -11537,7 +11693,7 @@
       <c r="AQ149" s="27"/>
     </row>
     <row r="150" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A150" s="46"/>
+      <c r="A150" s="45"/>
       <c r="B150" s="16">
         <v>26</v>
       </c>
@@ -11587,7 +11743,7 @@
       <c r="AQ150" s="27"/>
     </row>
     <row r="151" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A151" s="46"/>
+      <c r="A151" s="45"/>
       <c r="B151" s="16">
         <v>27</v>
       </c>
@@ -11637,7 +11793,7 @@
       <c r="AQ151" s="27"/>
     </row>
     <row r="152" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A152" s="46"/>
+      <c r="A152" s="45"/>
       <c r="B152" s="16">
         <v>28</v>
       </c>
@@ -11687,7 +11843,7 @@
       <c r="AQ152" s="27"/>
     </row>
     <row r="153" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A153" s="46"/>
+      <c r="A153" s="45"/>
       <c r="B153" s="16">
         <v>29</v>
       </c>
@@ -11737,7 +11893,7 @@
       <c r="AQ153" s="27"/>
     </row>
     <row r="154" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A154" s="46"/>
+      <c r="A154" s="45"/>
       <c r="B154" s="16">
         <v>30</v>
       </c>
@@ -11787,7 +11943,7 @@
       <c r="AQ154" s="27"/>
     </row>
     <row r="155" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A155" s="46"/>
+      <c r="A155" s="45"/>
       <c r="B155" s="16">
         <v>31</v>
       </c>
@@ -11837,7 +11993,7 @@
       <c r="AQ155" s="43"/>
     </row>
     <row r="156" spans="1:373" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="46"/>
+      <c r="A156" s="45"/>
       <c r="B156" s="21">
         <v>32</v>
       </c>
@@ -12234,7 +12390,7 @@
       <c r="NI156" s="4"/>
     </row>
     <row r="157" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A157" s="46"/>
+      <c r="A157" s="45"/>
       <c r="B157" s="16">
         <v>33</v>
       </c>
@@ -12301,7 +12457,7 @@
       </c>
     </row>
     <row r="158" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A158" s="46"/>
+      <c r="A158" s="45"/>
       <c r="B158" s="16">
         <v>34</v>
       </c>
@@ -12368,7 +12524,7 @@
       </c>
     </row>
     <row r="159" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A159" s="46"/>
+      <c r="A159" s="45"/>
       <c r="B159" s="16">
         <v>35</v>
       </c>
@@ -12435,7 +12591,7 @@
       </c>
     </row>
     <row r="160" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A160" s="46"/>
+      <c r="A160" s="45"/>
       <c r="B160" s="16">
         <v>36</v>
       </c>
@@ -12502,7 +12658,7 @@
       </c>
     </row>
     <row r="161" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A161" s="46"/>
+      <c r="A161" s="45"/>
       <c r="B161" s="16">
         <v>37</v>
       </c>
@@ -12569,7 +12725,7 @@
       </c>
     </row>
     <row r="162" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A162" s="46"/>
+      <c r="A162" s="45"/>
       <c r="B162" s="16">
         <v>38</v>
       </c>
@@ -12636,7 +12792,7 @@
       </c>
     </row>
     <row r="163" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A163" s="46"/>
+      <c r="A163" s="45"/>
       <c r="B163" s="16">
         <v>39</v>
       </c>
@@ -12703,7 +12859,7 @@
       </c>
     </row>
     <row r="164" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A164" s="47"/>
+      <c r="A164" s="46"/>
       <c r="B164" s="29">
         <v>40</v>
       </c>
@@ -12770,7 +12926,7 @@
       </c>
     </row>
     <row r="165" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A165" s="44">
+      <c r="A165" s="47">
         <v>5</v>
       </c>
       <c r="B165" s="16">
@@ -12822,7 +12978,7 @@
       <c r="AQ165" s="28"/>
     </row>
     <row r="166" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A166" s="44"/>
+      <c r="A166" s="47"/>
       <c r="B166" s="16">
         <v>2</v>
       </c>
@@ -12872,7 +13028,7 @@
       <c r="AQ166" s="27"/>
     </row>
     <row r="167" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A167" s="44"/>
+      <c r="A167" s="47"/>
       <c r="B167" s="16">
         <v>3</v>
       </c>
@@ -12922,7 +13078,7 @@
       <c r="AQ167" s="27"/>
     </row>
     <row r="168" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A168" s="44"/>
+      <c r="A168" s="47"/>
       <c r="B168" s="16">
         <v>4</v>
       </c>
@@ -12972,7 +13128,7 @@
       <c r="AQ168" s="27"/>
     </row>
     <row r="169" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A169" s="44"/>
+      <c r="A169" s="47"/>
       <c r="B169" s="16">
         <v>5</v>
       </c>
@@ -13022,7 +13178,7 @@
       <c r="AQ169" s="27"/>
     </row>
     <row r="170" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A170" s="44"/>
+      <c r="A170" s="47"/>
       <c r="B170" s="16">
         <v>6</v>
       </c>
@@ -13072,7 +13228,7 @@
       <c r="AQ170" s="27"/>
     </row>
     <row r="171" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A171" s="44"/>
+      <c r="A171" s="47"/>
       <c r="B171" s="16">
         <v>7</v>
       </c>
@@ -13122,7 +13278,7 @@
       <c r="AQ171" s="27"/>
     </row>
     <row r="172" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A172" s="44"/>
+      <c r="A172" s="47"/>
       <c r="B172" s="16">
         <v>8</v>
       </c>
@@ -13172,7 +13328,7 @@
       <c r="AQ172" s="27"/>
     </row>
     <row r="173" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A173" s="44"/>
+      <c r="A173" s="47"/>
       <c r="B173" s="16">
         <v>9</v>
       </c>
@@ -13222,7 +13378,7 @@
       <c r="AQ173" s="27"/>
     </row>
     <row r="174" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A174" s="44"/>
+      <c r="A174" s="47"/>
       <c r="B174" s="16">
         <v>10</v>
       </c>
@@ -13272,7 +13428,7 @@
       <c r="AQ174" s="27"/>
     </row>
     <row r="175" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A175" s="44"/>
+      <c r="A175" s="47"/>
       <c r="B175" s="16">
         <v>11</v>
       </c>
@@ -13322,7 +13478,7 @@
       <c r="AQ175" s="27"/>
     </row>
     <row r="176" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A176" s="44"/>
+      <c r="A176" s="47"/>
       <c r="B176" s="16">
         <v>12</v>
       </c>
@@ -13372,7 +13528,7 @@
       <c r="AQ176" s="27"/>
     </row>
     <row r="177" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A177" s="44"/>
+      <c r="A177" s="47"/>
       <c r="B177" s="16">
         <v>13</v>
       </c>
@@ -13422,7 +13578,7 @@
       <c r="AQ177" s="27"/>
     </row>
     <row r="178" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A178" s="44"/>
+      <c r="A178" s="47"/>
       <c r="B178" s="16">
         <v>14</v>
       </c>
@@ -13472,7 +13628,7 @@
       <c r="AQ178" s="27"/>
     </row>
     <row r="179" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A179" s="44"/>
+      <c r="A179" s="47"/>
       <c r="B179" s="16">
         <v>15</v>
       </c>
@@ -13522,7 +13678,7 @@
       <c r="AQ179" s="27"/>
     </row>
     <row r="180" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A180" s="44"/>
+      <c r="A180" s="47"/>
       <c r="B180" s="16">
         <v>16</v>
       </c>
@@ -13572,7 +13728,7 @@
       <c r="AQ180" s="27"/>
     </row>
     <row r="181" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A181" s="44"/>
+      <c r="A181" s="47"/>
       <c r="B181" s="16">
         <v>17</v>
       </c>
@@ -13622,7 +13778,7 @@
       <c r="AQ181" s="27"/>
     </row>
     <row r="182" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A182" s="44"/>
+      <c r="A182" s="47"/>
       <c r="B182" s="16">
         <v>18</v>
       </c>
@@ -13672,7 +13828,7 @@
       <c r="AQ182" s="27"/>
     </row>
     <row r="183" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A183" s="44"/>
+      <c r="A183" s="47"/>
       <c r="B183" s="16">
         <v>19</v>
       </c>
@@ -13722,7 +13878,7 @@
       <c r="AQ183" s="27"/>
     </row>
     <row r="184" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A184" s="44"/>
+      <c r="A184" s="47"/>
       <c r="B184" s="16">
         <v>20</v>
       </c>
@@ -13772,7 +13928,7 @@
       <c r="AQ184" s="27"/>
     </row>
     <row r="185" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A185" s="44"/>
+      <c r="A185" s="47"/>
       <c r="B185" s="16">
         <v>21</v>
       </c>
@@ -13822,7 +13978,7 @@
       <c r="AQ185" s="27"/>
     </row>
     <row r="186" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A186" s="44"/>
+      <c r="A186" s="47"/>
       <c r="B186" s="16">
         <v>22</v>
       </c>
@@ -13872,7 +14028,7 @@
       <c r="AQ186" s="27"/>
     </row>
     <row r="187" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A187" s="44"/>
+      <c r="A187" s="47"/>
       <c r="B187" s="16">
         <v>23</v>
       </c>
@@ -13922,7 +14078,7 @@
       <c r="AQ187" s="27"/>
     </row>
     <row r="188" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A188" s="44"/>
+      <c r="A188" s="47"/>
       <c r="B188" s="16">
         <v>24</v>
       </c>
@@ -13972,7 +14128,7 @@
       <c r="AQ188" s="27"/>
     </row>
     <row r="189" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A189" s="44"/>
+      <c r="A189" s="47"/>
       <c r="B189" s="16">
         <v>25</v>
       </c>
@@ -14022,7 +14178,7 @@
       <c r="AQ189" s="27"/>
     </row>
     <row r="190" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A190" s="44"/>
+      <c r="A190" s="47"/>
       <c r="B190" s="16">
         <v>26</v>
       </c>
@@ -14072,7 +14228,7 @@
       <c r="AQ190" s="27"/>
     </row>
     <row r="191" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A191" s="44"/>
+      <c r="A191" s="47"/>
       <c r="B191" s="16">
         <v>27</v>
       </c>
@@ -14122,7 +14278,7 @@
       <c r="AQ191" s="27"/>
     </row>
     <row r="192" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A192" s="44"/>
+      <c r="A192" s="47"/>
       <c r="B192" s="16">
         <v>28</v>
       </c>
@@ -14172,7 +14328,7 @@
       <c r="AQ192" s="27"/>
     </row>
     <row r="193" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A193" s="44"/>
+      <c r="A193" s="47"/>
       <c r="B193" s="16">
         <v>29</v>
       </c>
@@ -14222,7 +14378,7 @@
       <c r="AQ193" s="27"/>
     </row>
     <row r="194" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A194" s="44"/>
+      <c r="A194" s="47"/>
       <c r="B194" s="16">
         <v>30</v>
       </c>
@@ -14272,7 +14428,7 @@
       <c r="AQ194" s="27"/>
     </row>
     <row r="195" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A195" s="44"/>
+      <c r="A195" s="47"/>
       <c r="B195" s="16">
         <v>31</v>
       </c>
@@ -14322,7 +14478,7 @@
       <c r="AQ195" s="43"/>
     </row>
     <row r="196" spans="1:373" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="44"/>
+      <c r="A196" s="47"/>
       <c r="B196" s="21">
         <v>32</v>
       </c>
@@ -14719,7 +14875,7 @@
       <c r="NI196" s="4"/>
     </row>
     <row r="197" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A197" s="44"/>
+      <c r="A197" s="47"/>
       <c r="B197" s="16">
         <v>33</v>
       </c>
@@ -14786,7 +14942,7 @@
       </c>
     </row>
     <row r="198" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A198" s="44"/>
+      <c r="A198" s="47"/>
       <c r="B198" s="16">
         <v>34</v>
       </c>
@@ -14853,7 +15009,7 @@
       </c>
     </row>
     <row r="199" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A199" s="44"/>
+      <c r="A199" s="47"/>
       <c r="B199" s="16">
         <v>35</v>
       </c>
@@ -14920,7 +15076,7 @@
       </c>
     </row>
     <row r="200" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A200" s="44"/>
+      <c r="A200" s="47"/>
       <c r="B200" s="16">
         <v>36</v>
       </c>
@@ -14987,7 +15143,7 @@
       </c>
     </row>
     <row r="201" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A201" s="44"/>
+      <c r="A201" s="47"/>
       <c r="B201" s="16">
         <v>37</v>
       </c>
@@ -15054,7 +15210,7 @@
       </c>
     </row>
     <row r="202" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A202" s="44"/>
+      <c r="A202" s="47"/>
       <c r="B202" s="16">
         <v>38</v>
       </c>
@@ -15121,7 +15277,7 @@
       </c>
     </row>
     <row r="203" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A203" s="44"/>
+      <c r="A203" s="47"/>
       <c r="B203" s="16">
         <v>39</v>
       </c>
@@ -15188,7 +15344,7 @@
       </c>
     </row>
     <row r="204" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A204" s="44"/>
+      <c r="A204" s="47"/>
       <c r="B204" s="16">
         <v>40</v>
       </c>
@@ -15255,7 +15411,7 @@
       </c>
     </row>
     <row r="205" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A205" s="45">
+      <c r="A205" s="44">
         <v>6</v>
       </c>
       <c r="B205" s="21">
@@ -15307,7 +15463,7 @@
       <c r="AQ205" s="26"/>
     </row>
     <row r="206" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A206" s="46"/>
+      <c r="A206" s="45"/>
       <c r="B206" s="16">
         <v>2</v>
       </c>
@@ -15357,7 +15513,7 @@
       <c r="AQ206" s="27"/>
     </row>
     <row r="207" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A207" s="46"/>
+      <c r="A207" s="45"/>
       <c r="B207" s="16">
         <v>3</v>
       </c>
@@ -15407,7 +15563,7 @@
       <c r="AQ207" s="27"/>
     </row>
     <row r="208" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A208" s="46"/>
+      <c r="A208" s="45"/>
       <c r="B208" s="16">
         <v>4</v>
       </c>
@@ -15457,7 +15613,7 @@
       <c r="AQ208" s="27"/>
     </row>
     <row r="209" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A209" s="46"/>
+      <c r="A209" s="45"/>
       <c r="B209" s="16">
         <v>5</v>
       </c>
@@ -15507,7 +15663,7 @@
       <c r="AQ209" s="27"/>
     </row>
     <row r="210" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A210" s="46"/>
+      <c r="A210" s="45"/>
       <c r="B210" s="16">
         <v>6</v>
       </c>
@@ -15557,7 +15713,7 @@
       <c r="AQ210" s="27"/>
     </row>
     <row r="211" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A211" s="46"/>
+      <c r="A211" s="45"/>
       <c r="B211" s="16">
         <v>7</v>
       </c>
@@ -15607,7 +15763,7 @@
       <c r="AQ211" s="27"/>
     </row>
     <row r="212" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A212" s="46"/>
+      <c r="A212" s="45"/>
       <c r="B212" s="16">
         <v>8</v>
       </c>
@@ -15657,7 +15813,7 @@
       <c r="AQ212" s="27"/>
     </row>
     <row r="213" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A213" s="46"/>
+      <c r="A213" s="45"/>
       <c r="B213" s="16">
         <v>9</v>
       </c>
@@ -15707,7 +15863,7 @@
       <c r="AQ213" s="27"/>
     </row>
     <row r="214" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A214" s="46"/>
+      <c r="A214" s="45"/>
       <c r="B214" s="16">
         <v>10</v>
       </c>
@@ -15757,7 +15913,7 @@
       <c r="AQ214" s="27"/>
     </row>
     <row r="215" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A215" s="46"/>
+      <c r="A215" s="45"/>
       <c r="B215" s="16">
         <v>11</v>
       </c>
@@ -15807,7 +15963,7 @@
       <c r="AQ215" s="27"/>
     </row>
     <row r="216" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A216" s="46"/>
+      <c r="A216" s="45"/>
       <c r="B216" s="16">
         <v>12</v>
       </c>
@@ -15857,7 +16013,7 @@
       <c r="AQ216" s="27"/>
     </row>
     <row r="217" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A217" s="46"/>
+      <c r="A217" s="45"/>
       <c r="B217" s="16">
         <v>13</v>
       </c>
@@ -15907,7 +16063,7 @@
       <c r="AQ217" s="27"/>
     </row>
     <row r="218" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A218" s="46"/>
+      <c r="A218" s="45"/>
       <c r="B218" s="16">
         <v>14</v>
       </c>
@@ -15957,7 +16113,7 @@
       <c r="AQ218" s="27"/>
     </row>
     <row r="219" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A219" s="46"/>
+      <c r="A219" s="45"/>
       <c r="B219" s="16">
         <v>15</v>
       </c>
@@ -16007,7 +16163,7 @@
       <c r="AQ219" s="27"/>
     </row>
     <row r="220" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A220" s="46"/>
+      <c r="A220" s="45"/>
       <c r="B220" s="16">
         <v>16</v>
       </c>
@@ -16057,7 +16213,7 @@
       <c r="AQ220" s="27"/>
     </row>
     <row r="221" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A221" s="46"/>
+      <c r="A221" s="45"/>
       <c r="B221" s="16">
         <v>17</v>
       </c>
@@ -16107,7 +16263,7 @@
       <c r="AQ221" s="27"/>
     </row>
     <row r="222" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A222" s="46"/>
+      <c r="A222" s="45"/>
       <c r="B222" s="16">
         <v>18</v>
       </c>
@@ -16157,7 +16313,7 @@
       <c r="AQ222" s="27"/>
     </row>
     <row r="223" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A223" s="46"/>
+      <c r="A223" s="45"/>
       <c r="B223" s="16">
         <v>19</v>
       </c>
@@ -16207,7 +16363,7 @@
       <c r="AQ223" s="27"/>
     </row>
     <row r="224" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A224" s="46"/>
+      <c r="A224" s="45"/>
       <c r="B224" s="16">
         <v>20</v>
       </c>
@@ -16257,7 +16413,7 @@
       <c r="AQ224" s="27"/>
     </row>
     <row r="225" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A225" s="46"/>
+      <c r="A225" s="45"/>
       <c r="B225" s="16">
         <v>21</v>
       </c>
@@ -16307,7 +16463,7 @@
       <c r="AQ225" s="27"/>
     </row>
     <row r="226" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A226" s="46"/>
+      <c r="A226" s="45"/>
       <c r="B226" s="16">
         <v>22</v>
       </c>
@@ -16357,7 +16513,7 @@
       <c r="AQ226" s="27"/>
     </row>
     <row r="227" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A227" s="46"/>
+      <c r="A227" s="45"/>
       <c r="B227" s="16">
         <v>23</v>
       </c>
@@ -16407,7 +16563,7 @@
       <c r="AQ227" s="27"/>
     </row>
     <row r="228" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A228" s="46"/>
+      <c r="A228" s="45"/>
       <c r="B228" s="16">
         <v>24</v>
       </c>
@@ -16457,7 +16613,7 @@
       <c r="AQ228" s="27"/>
     </row>
     <row r="229" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A229" s="46"/>
+      <c r="A229" s="45"/>
       <c r="B229" s="16">
         <v>25</v>
       </c>
@@ -16507,7 +16663,7 @@
       <c r="AQ229" s="27"/>
     </row>
     <row r="230" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A230" s="46"/>
+      <c r="A230" s="45"/>
       <c r="B230" s="16">
         <v>26</v>
       </c>
@@ -16557,7 +16713,7 @@
       <c r="AQ230" s="27"/>
     </row>
     <row r="231" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A231" s="46"/>
+      <c r="A231" s="45"/>
       <c r="B231" s="16">
         <v>27</v>
       </c>
@@ -16607,7 +16763,7 @@
       <c r="AQ231" s="27"/>
     </row>
     <row r="232" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A232" s="46"/>
+      <c r="A232" s="45"/>
       <c r="B232" s="16">
         <v>28</v>
       </c>
@@ -16657,7 +16813,7 @@
       <c r="AQ232" s="27"/>
     </row>
     <row r="233" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A233" s="46"/>
+      <c r="A233" s="45"/>
       <c r="B233" s="16">
         <v>29</v>
       </c>
@@ -16707,7 +16863,7 @@
       <c r="AQ233" s="27"/>
     </row>
     <row r="234" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A234" s="46"/>
+      <c r="A234" s="45"/>
       <c r="B234" s="16">
         <v>30</v>
       </c>
@@ -16757,7 +16913,7 @@
       <c r="AQ234" s="27"/>
     </row>
     <row r="235" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A235" s="46"/>
+      <c r="A235" s="45"/>
       <c r="B235" s="16">
         <v>31</v>
       </c>
@@ -16807,7 +16963,7 @@
       <c r="AQ235" s="43"/>
     </row>
     <row r="236" spans="1:373" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="46"/>
+      <c r="A236" s="45"/>
       <c r="B236" s="21">
         <v>32</v>
       </c>
@@ -17204,7 +17360,7 @@
       <c r="NI236" s="4"/>
     </row>
     <row r="237" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A237" s="46"/>
+      <c r="A237" s="45"/>
       <c r="B237" s="16">
         <v>33</v>
       </c>
@@ -17271,7 +17427,7 @@
       </c>
     </row>
     <row r="238" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A238" s="46"/>
+      <c r="A238" s="45"/>
       <c r="B238" s="16">
         <v>34</v>
       </c>
@@ -17338,7 +17494,7 @@
       </c>
     </row>
     <row r="239" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A239" s="46"/>
+      <c r="A239" s="45"/>
       <c r="B239" s="16">
         <v>35</v>
       </c>
@@ -17405,7 +17561,7 @@
       </c>
     </row>
     <row r="240" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A240" s="46"/>
+      <c r="A240" s="45"/>
       <c r="B240" s="16">
         <v>36</v>
       </c>
@@ -17472,7 +17628,7 @@
       </c>
     </row>
     <row r="241" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A241" s="46"/>
+      <c r="A241" s="45"/>
       <c r="B241" s="16">
         <v>37</v>
       </c>
@@ -17539,7 +17695,7 @@
       </c>
     </row>
     <row r="242" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A242" s="46"/>
+      <c r="A242" s="45"/>
       <c r="B242" s="16">
         <v>38</v>
       </c>
@@ -17606,7 +17762,7 @@
       </c>
     </row>
     <row r="243" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A243" s="46"/>
+      <c r="A243" s="45"/>
       <c r="B243" s="16">
         <v>39</v>
       </c>
@@ -17673,7 +17829,7 @@
       </c>
     </row>
     <row r="244" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A244" s="47"/>
+      <c r="A244" s="46"/>
       <c r="B244" s="29">
         <v>40</v>
       </c>
@@ -17740,7 +17896,7 @@
       </c>
     </row>
     <row r="245" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A245" s="44">
+      <c r="A245" s="47">
         <v>7</v>
       </c>
       <c r="B245" s="16">
@@ -17792,7 +17948,7 @@
       <c r="AQ245" s="28"/>
     </row>
     <row r="246" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A246" s="44"/>
+      <c r="A246" s="47"/>
       <c r="B246" s="16">
         <v>2</v>
       </c>
@@ -17842,7 +17998,7 @@
       <c r="AQ246" s="27"/>
     </row>
     <row r="247" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A247" s="44"/>
+      <c r="A247" s="47"/>
       <c r="B247" s="16">
         <v>3</v>
       </c>
@@ -17892,7 +18048,7 @@
       <c r="AQ247" s="27"/>
     </row>
     <row r="248" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A248" s="44"/>
+      <c r="A248" s="47"/>
       <c r="B248" s="16">
         <v>4</v>
       </c>
@@ -17942,7 +18098,7 @@
       <c r="AQ248" s="27"/>
     </row>
     <row r="249" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A249" s="44"/>
+      <c r="A249" s="47"/>
       <c r="B249" s="16">
         <v>5</v>
       </c>
@@ -17992,7 +18148,7 @@
       <c r="AQ249" s="27"/>
     </row>
     <row r="250" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A250" s="44"/>
+      <c r="A250" s="47"/>
       <c r="B250" s="16">
         <v>6</v>
       </c>
@@ -18042,7 +18198,7 @@
       <c r="AQ250" s="27"/>
     </row>
     <row r="251" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A251" s="44"/>
+      <c r="A251" s="47"/>
       <c r="B251" s="16">
         <v>7</v>
       </c>
@@ -18092,7 +18248,7 @@
       <c r="AQ251" s="27"/>
     </row>
     <row r="252" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A252" s="44"/>
+      <c r="A252" s="47"/>
       <c r="B252" s="16">
         <v>8</v>
       </c>
@@ -18142,7 +18298,7 @@
       <c r="AQ252" s="27"/>
     </row>
     <row r="253" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A253" s="44"/>
+      <c r="A253" s="47"/>
       <c r="B253" s="16">
         <v>9</v>
       </c>
@@ -18192,7 +18348,7 @@
       <c r="AQ253" s="27"/>
     </row>
     <row r="254" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A254" s="44"/>
+      <c r="A254" s="47"/>
       <c r="B254" s="16">
         <v>10</v>
       </c>
@@ -18242,7 +18398,7 @@
       <c r="AQ254" s="27"/>
     </row>
     <row r="255" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A255" s="44"/>
+      <c r="A255" s="47"/>
       <c r="B255" s="16">
         <v>11</v>
       </c>
@@ -18292,7 +18448,7 @@
       <c r="AQ255" s="27"/>
     </row>
     <row r="256" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A256" s="44"/>
+      <c r="A256" s="47"/>
       <c r="B256" s="16">
         <v>12</v>
       </c>
@@ -18342,7 +18498,7 @@
       <c r="AQ256" s="27"/>
     </row>
     <row r="257" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A257" s="44"/>
+      <c r="A257" s="47"/>
       <c r="B257" s="16">
         <v>13</v>
       </c>
@@ -18392,7 +18548,7 @@
       <c r="AQ257" s="27"/>
     </row>
     <row r="258" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A258" s="44"/>
+      <c r="A258" s="47"/>
       <c r="B258" s="16">
         <v>14</v>
       </c>
@@ -18442,7 +18598,7 @@
       <c r="AQ258" s="27"/>
     </row>
     <row r="259" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A259" s="44"/>
+      <c r="A259" s="47"/>
       <c r="B259" s="16">
         <v>15</v>
       </c>
@@ -18492,7 +18648,7 @@
       <c r="AQ259" s="27"/>
     </row>
     <row r="260" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A260" s="44"/>
+      <c r="A260" s="47"/>
       <c r="B260" s="16">
         <v>16</v>
       </c>
@@ -18542,7 +18698,7 @@
       <c r="AQ260" s="27"/>
     </row>
     <row r="261" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A261" s="44"/>
+      <c r="A261" s="47"/>
       <c r="B261" s="16">
         <v>17</v>
       </c>
@@ -18592,7 +18748,7 @@
       <c r="AQ261" s="27"/>
     </row>
     <row r="262" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A262" s="44"/>
+      <c r="A262" s="47"/>
       <c r="B262" s="16">
         <v>18</v>
       </c>
@@ -18642,7 +18798,7 @@
       <c r="AQ262" s="27"/>
     </row>
     <row r="263" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A263" s="44"/>
+      <c r="A263" s="47"/>
       <c r="B263" s="16">
         <v>19</v>
       </c>
@@ -18692,7 +18848,7 @@
       <c r="AQ263" s="27"/>
     </row>
     <row r="264" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A264" s="44"/>
+      <c r="A264" s="47"/>
       <c r="B264" s="16">
         <v>20</v>
       </c>
@@ -18742,7 +18898,7 @@
       <c r="AQ264" s="27"/>
     </row>
     <row r="265" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A265" s="44"/>
+      <c r="A265" s="47"/>
       <c r="B265" s="16">
         <v>21</v>
       </c>
@@ -18792,7 +18948,7 @@
       <c r="AQ265" s="27"/>
     </row>
     <row r="266" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A266" s="44"/>
+      <c r="A266" s="47"/>
       <c r="B266" s="16">
         <v>22</v>
       </c>
@@ -18842,7 +18998,7 @@
       <c r="AQ266" s="27"/>
     </row>
     <row r="267" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A267" s="44"/>
+      <c r="A267" s="47"/>
       <c r="B267" s="16">
         <v>23</v>
       </c>
@@ -18892,7 +19048,7 @@
       <c r="AQ267" s="27"/>
     </row>
     <row r="268" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A268" s="44"/>
+      <c r="A268" s="47"/>
       <c r="B268" s="16">
         <v>24</v>
       </c>
@@ -18942,7 +19098,7 @@
       <c r="AQ268" s="27"/>
     </row>
     <row r="269" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A269" s="44"/>
+      <c r="A269" s="47"/>
       <c r="B269" s="16">
         <v>25</v>
       </c>
@@ -18992,7 +19148,7 @@
       <c r="AQ269" s="27"/>
     </row>
     <row r="270" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A270" s="44"/>
+      <c r="A270" s="47"/>
       <c r="B270" s="16">
         <v>26</v>
       </c>
@@ -19042,7 +19198,7 @@
       <c r="AQ270" s="27"/>
     </row>
     <row r="271" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A271" s="44"/>
+      <c r="A271" s="47"/>
       <c r="B271" s="16">
         <v>27</v>
       </c>
@@ -19092,7 +19248,7 @@
       <c r="AQ271" s="27"/>
     </row>
     <row r="272" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A272" s="44"/>
+      <c r="A272" s="47"/>
       <c r="B272" s="16">
         <v>28</v>
       </c>
@@ -19142,7 +19298,7 @@
       <c r="AQ272" s="27"/>
     </row>
     <row r="273" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A273" s="44"/>
+      <c r="A273" s="47"/>
       <c r="B273" s="16">
         <v>29</v>
       </c>
@@ -19192,7 +19348,7 @@
       <c r="AQ273" s="27"/>
     </row>
     <row r="274" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A274" s="44"/>
+      <c r="A274" s="47"/>
       <c r="B274" s="16">
         <v>30</v>
       </c>
@@ -19242,7 +19398,7 @@
       <c r="AQ274" s="27"/>
     </row>
     <row r="275" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A275" s="44"/>
+      <c r="A275" s="47"/>
       <c r="B275" s="16">
         <v>31</v>
       </c>
@@ -19292,7 +19448,7 @@
       <c r="AQ275" s="43"/>
     </row>
     <row r="276" spans="1:373" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="44"/>
+      <c r="A276" s="47"/>
       <c r="B276" s="21">
         <v>32</v>
       </c>
@@ -19689,7 +19845,7 @@
       <c r="NI276" s="4"/>
     </row>
     <row r="277" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A277" s="44"/>
+      <c r="A277" s="47"/>
       <c r="B277" s="16">
         <v>33</v>
       </c>
@@ -19756,7 +19912,7 @@
       </c>
     </row>
     <row r="278" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A278" s="44"/>
+      <c r="A278" s="47"/>
       <c r="B278" s="16">
         <v>34</v>
       </c>
@@ -19823,7 +19979,7 @@
       </c>
     </row>
     <row r="279" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A279" s="44"/>
+      <c r="A279" s="47"/>
       <c r="B279" s="16">
         <v>35</v>
       </c>
@@ -19890,7 +20046,7 @@
       </c>
     </row>
     <row r="280" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A280" s="44"/>
+      <c r="A280" s="47"/>
       <c r="B280" s="16">
         <v>36</v>
       </c>
@@ -19957,7 +20113,7 @@
       </c>
     </row>
     <row r="281" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A281" s="44"/>
+      <c r="A281" s="47"/>
       <c r="B281" s="16">
         <v>37</v>
       </c>
@@ -20024,7 +20180,7 @@
       </c>
     </row>
     <row r="282" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A282" s="44"/>
+      <c r="A282" s="47"/>
       <c r="B282" s="16">
         <v>38</v>
       </c>
@@ -20091,7 +20247,7 @@
       </c>
     </row>
     <row r="283" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A283" s="44"/>
+      <c r="A283" s="47"/>
       <c r="B283" s="16">
         <v>39</v>
       </c>
@@ -20158,7 +20314,7 @@
       </c>
     </row>
     <row r="284" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A284" s="44"/>
+      <c r="A284" s="47"/>
       <c r="B284" s="16">
         <v>40</v>
       </c>
@@ -20225,7 +20381,7 @@
       </c>
     </row>
     <row r="285" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A285" s="45">
+      <c r="A285" s="44">
         <v>8</v>
       </c>
       <c r="B285" s="21">
@@ -20277,7 +20433,7 @@
       <c r="AQ285" s="26"/>
     </row>
     <row r="286" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A286" s="46"/>
+      <c r="A286" s="45"/>
       <c r="B286" s="16">
         <v>2</v>
       </c>
@@ -20327,7 +20483,7 @@
       <c r="AQ286" s="27"/>
     </row>
     <row r="287" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A287" s="46"/>
+      <c r="A287" s="45"/>
       <c r="B287" s="16">
         <v>3</v>
       </c>
@@ -20377,7 +20533,7 @@
       <c r="AQ287" s="27"/>
     </row>
     <row r="288" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A288" s="46"/>
+      <c r="A288" s="45"/>
       <c r="B288" s="16">
         <v>4</v>
       </c>
@@ -20427,7 +20583,7 @@
       <c r="AQ288" s="27"/>
     </row>
     <row r="289" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A289" s="46"/>
+      <c r="A289" s="45"/>
       <c r="B289" s="16">
         <v>5</v>
       </c>
@@ -20477,7 +20633,7 @@
       <c r="AQ289" s="27"/>
     </row>
     <row r="290" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A290" s="46"/>
+      <c r="A290" s="45"/>
       <c r="B290" s="16">
         <v>6</v>
       </c>
@@ -20527,7 +20683,7 @@
       <c r="AQ290" s="27"/>
     </row>
     <row r="291" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A291" s="46"/>
+      <c r="A291" s="45"/>
       <c r="B291" s="16">
         <v>7</v>
       </c>
@@ -20577,7 +20733,7 @@
       <c r="AQ291" s="27"/>
     </row>
     <row r="292" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A292" s="46"/>
+      <c r="A292" s="45"/>
       <c r="B292" s="16">
         <v>8</v>
       </c>
@@ -20627,7 +20783,7 @@
       <c r="AQ292" s="27"/>
     </row>
     <row r="293" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A293" s="46"/>
+      <c r="A293" s="45"/>
       <c r="B293" s="16">
         <v>9</v>
       </c>
@@ -20677,7 +20833,7 @@
       <c r="AQ293" s="27"/>
     </row>
     <row r="294" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A294" s="46"/>
+      <c r="A294" s="45"/>
       <c r="B294" s="16">
         <v>10</v>
       </c>
@@ -20727,7 +20883,7 @@
       <c r="AQ294" s="27"/>
     </row>
     <row r="295" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A295" s="46"/>
+      <c r="A295" s="45"/>
       <c r="B295" s="16">
         <v>11</v>
       </c>
@@ -20777,7 +20933,7 @@
       <c r="AQ295" s="27"/>
     </row>
     <row r="296" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A296" s="46"/>
+      <c r="A296" s="45"/>
       <c r="B296" s="16">
         <v>12</v>
       </c>
@@ -20827,7 +20983,7 @@
       <c r="AQ296" s="27"/>
     </row>
     <row r="297" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A297" s="46"/>
+      <c r="A297" s="45"/>
       <c r="B297" s="16">
         <v>13</v>
       </c>
@@ -20877,7 +21033,7 @@
       <c r="AQ297" s="27"/>
     </row>
     <row r="298" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A298" s="46"/>
+      <c r="A298" s="45"/>
       <c r="B298" s="16">
         <v>14</v>
       </c>
@@ -20927,7 +21083,7 @@
       <c r="AQ298" s="27"/>
     </row>
     <row r="299" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A299" s="46"/>
+      <c r="A299" s="45"/>
       <c r="B299" s="16">
         <v>15</v>
       </c>
@@ -20977,7 +21133,7 @@
       <c r="AQ299" s="27"/>
     </row>
     <row r="300" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A300" s="46"/>
+      <c r="A300" s="45"/>
       <c r="B300" s="16">
         <v>16</v>
       </c>
@@ -21027,7 +21183,7 @@
       <c r="AQ300" s="27"/>
     </row>
     <row r="301" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A301" s="46"/>
+      <c r="A301" s="45"/>
       <c r="B301" s="16">
         <v>17</v>
       </c>
@@ -21077,7 +21233,7 @@
       <c r="AQ301" s="27"/>
     </row>
     <row r="302" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A302" s="46"/>
+      <c r="A302" s="45"/>
       <c r="B302" s="16">
         <v>18</v>
       </c>
@@ -21127,7 +21283,7 @@
       <c r="AQ302" s="27"/>
     </row>
     <row r="303" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A303" s="46"/>
+      <c r="A303" s="45"/>
       <c r="B303" s="16">
         <v>19</v>
       </c>
@@ -21177,7 +21333,7 @@
       <c r="AQ303" s="27"/>
     </row>
     <row r="304" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A304" s="46"/>
+      <c r="A304" s="45"/>
       <c r="B304" s="16">
         <v>20</v>
       </c>
@@ -21227,7 +21383,7 @@
       <c r="AQ304" s="27"/>
     </row>
     <row r="305" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A305" s="46"/>
+      <c r="A305" s="45"/>
       <c r="B305" s="16">
         <v>21</v>
       </c>
@@ -21277,7 +21433,7 @@
       <c r="AQ305" s="27"/>
     </row>
     <row r="306" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A306" s="46"/>
+      <c r="A306" s="45"/>
       <c r="B306" s="16">
         <v>22</v>
       </c>
@@ -21327,7 +21483,7 @@
       <c r="AQ306" s="27"/>
     </row>
     <row r="307" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A307" s="46"/>
+      <c r="A307" s="45"/>
       <c r="B307" s="16">
         <v>23</v>
       </c>
@@ -21377,7 +21533,7 @@
       <c r="AQ307" s="27"/>
     </row>
     <row r="308" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A308" s="46"/>
+      <c r="A308" s="45"/>
       <c r="B308" s="16">
         <v>24</v>
       </c>
@@ -21427,7 +21583,7 @@
       <c r="AQ308" s="27"/>
     </row>
     <row r="309" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A309" s="46"/>
+      <c r="A309" s="45"/>
       <c r="B309" s="16">
         <v>25</v>
       </c>
@@ -21477,7 +21633,7 @@
       <c r="AQ309" s="27"/>
     </row>
     <row r="310" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A310" s="46"/>
+      <c r="A310" s="45"/>
       <c r="B310" s="16">
         <v>26</v>
       </c>
@@ -21527,7 +21683,7 @@
       <c r="AQ310" s="27"/>
     </row>
     <row r="311" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A311" s="46"/>
+      <c r="A311" s="45"/>
       <c r="B311" s="16">
         <v>27</v>
       </c>
@@ -21577,7 +21733,7 @@
       <c r="AQ311" s="27"/>
     </row>
     <row r="312" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A312" s="46"/>
+      <c r="A312" s="45"/>
       <c r="B312" s="16">
         <v>28</v>
       </c>
@@ -21627,7 +21783,7 @@
       <c r="AQ312" s="27"/>
     </row>
     <row r="313" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A313" s="46"/>
+      <c r="A313" s="45"/>
       <c r="B313" s="16">
         <v>29</v>
       </c>
@@ -21677,7 +21833,7 @@
       <c r="AQ313" s="27"/>
     </row>
     <row r="314" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A314" s="46"/>
+      <c r="A314" s="45"/>
       <c r="B314" s="16">
         <v>30</v>
       </c>
@@ -21727,7 +21883,7 @@
       <c r="AQ314" s="27"/>
     </row>
     <row r="315" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A315" s="46"/>
+      <c r="A315" s="45"/>
       <c r="B315" s="16">
         <v>31</v>
       </c>
@@ -21777,7 +21933,7 @@
       <c r="AQ315" s="43"/>
     </row>
     <row r="316" spans="1:373" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="46"/>
+      <c r="A316" s="45"/>
       <c r="B316" s="21">
         <v>32</v>
       </c>
@@ -22174,7 +22330,7 @@
       <c r="NI316" s="4"/>
     </row>
     <row r="317" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A317" s="46"/>
+      <c r="A317" s="45"/>
       <c r="B317" s="16">
         <v>33</v>
       </c>
@@ -22241,7 +22397,7 @@
       </c>
     </row>
     <row r="318" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A318" s="46"/>
+      <c r="A318" s="45"/>
       <c r="B318" s="16">
         <v>34</v>
       </c>
@@ -22308,7 +22464,7 @@
       </c>
     </row>
     <row r="319" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A319" s="46"/>
+      <c r="A319" s="45"/>
       <c r="B319" s="16">
         <v>35</v>
       </c>
@@ -22375,7 +22531,7 @@
       </c>
     </row>
     <row r="320" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A320" s="46"/>
+      <c r="A320" s="45"/>
       <c r="B320" s="16">
         <v>36</v>
       </c>
@@ -22442,7 +22598,7 @@
       </c>
     </row>
     <row r="321" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A321" s="46"/>
+      <c r="A321" s="45"/>
       <c r="B321" s="16">
         <v>37</v>
       </c>
@@ -22509,7 +22665,7 @@
       </c>
     </row>
     <row r="322" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A322" s="46"/>
+      <c r="A322" s="45"/>
       <c r="B322" s="16">
         <v>38</v>
       </c>
@@ -22576,7 +22732,7 @@
       </c>
     </row>
     <row r="323" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A323" s="46"/>
+      <c r="A323" s="45"/>
       <c r="B323" s="16">
         <v>39</v>
       </c>
@@ -22643,7 +22799,7 @@
       </c>
     </row>
     <row r="324" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="47"/>
+      <c r="A324" s="46"/>
       <c r="B324" s="29">
         <v>40</v>
       </c>
@@ -22710,7 +22866,7 @@
       </c>
     </row>
     <row r="325" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="44">
+      <c r="A325" s="47">
         <v>9</v>
       </c>
       <c r="B325" s="16">
@@ -22762,7 +22918,7 @@
       <c r="AQ325" s="28"/>
     </row>
     <row r="326" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A326" s="44"/>
+      <c r="A326" s="47"/>
       <c r="B326" s="16">
         <v>2</v>
       </c>
@@ -22812,7 +22968,7 @@
       <c r="AQ326" s="27"/>
     </row>
     <row r="327" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A327" s="44"/>
+      <c r="A327" s="47"/>
       <c r="B327" s="16">
         <v>3</v>
       </c>
@@ -22862,7 +23018,7 @@
       <c r="AQ327" s="27"/>
     </row>
     <row r="328" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A328" s="44"/>
+      <c r="A328" s="47"/>
       <c r="B328" s="16">
         <v>4</v>
       </c>
@@ -22912,7 +23068,7 @@
       <c r="AQ328" s="27"/>
     </row>
     <row r="329" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A329" s="44"/>
+      <c r="A329" s="47"/>
       <c r="B329" s="16">
         <v>5</v>
       </c>
@@ -22962,7 +23118,7 @@
       <c r="AQ329" s="27"/>
     </row>
     <row r="330" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A330" s="44"/>
+      <c r="A330" s="47"/>
       <c r="B330" s="16">
         <v>6</v>
       </c>
@@ -23012,7 +23168,7 @@
       <c r="AQ330" s="27"/>
     </row>
     <row r="331" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A331" s="44"/>
+      <c r="A331" s="47"/>
       <c r="B331" s="16">
         <v>7</v>
       </c>
@@ -23062,7 +23218,7 @@
       <c r="AQ331" s="27"/>
     </row>
     <row r="332" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A332" s="44"/>
+      <c r="A332" s="47"/>
       <c r="B332" s="16">
         <v>8</v>
       </c>
@@ -23112,7 +23268,7 @@
       <c r="AQ332" s="27"/>
     </row>
     <row r="333" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A333" s="44"/>
+      <c r="A333" s="47"/>
       <c r="B333" s="16">
         <v>9</v>
       </c>
@@ -23162,7 +23318,7 @@
       <c r="AQ333" s="27"/>
     </row>
     <row r="334" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A334" s="44"/>
+      <c r="A334" s="47"/>
       <c r="B334" s="16">
         <v>10</v>
       </c>
@@ -23212,7 +23368,7 @@
       <c r="AQ334" s="27"/>
     </row>
     <row r="335" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A335" s="44"/>
+      <c r="A335" s="47"/>
       <c r="B335" s="16">
         <v>11</v>
       </c>
@@ -23262,7 +23418,7 @@
       <c r="AQ335" s="27"/>
     </row>
     <row r="336" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A336" s="44"/>
+      <c r="A336" s="47"/>
       <c r="B336" s="16">
         <v>12</v>
       </c>
@@ -23312,7 +23468,7 @@
       <c r="AQ336" s="27"/>
     </row>
     <row r="337" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A337" s="44"/>
+      <c r="A337" s="47"/>
       <c r="B337" s="16">
         <v>13</v>
       </c>
@@ -23362,7 +23518,7 @@
       <c r="AQ337" s="27"/>
     </row>
     <row r="338" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A338" s="44"/>
+      <c r="A338" s="47"/>
       <c r="B338" s="16">
         <v>14</v>
       </c>
@@ -23412,7 +23568,7 @@
       <c r="AQ338" s="27"/>
     </row>
     <row r="339" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A339" s="44"/>
+      <c r="A339" s="47"/>
       <c r="B339" s="16">
         <v>15</v>
       </c>
@@ -23462,7 +23618,7 @@
       <c r="AQ339" s="27"/>
     </row>
     <row r="340" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A340" s="44"/>
+      <c r="A340" s="47"/>
       <c r="B340" s="16">
         <v>16</v>
       </c>
@@ -23512,7 +23668,7 @@
       <c r="AQ340" s="27"/>
     </row>
     <row r="341" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A341" s="44"/>
+      <c r="A341" s="47"/>
       <c r="B341" s="16">
         <v>17</v>
       </c>
@@ -23562,7 +23718,7 @@
       <c r="AQ341" s="27"/>
     </row>
     <row r="342" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A342" s="44"/>
+      <c r="A342" s="47"/>
       <c r="B342" s="16">
         <v>18</v>
       </c>
@@ -23612,7 +23768,7 @@
       <c r="AQ342" s="27"/>
     </row>
     <row r="343" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A343" s="44"/>
+      <c r="A343" s="47"/>
       <c r="B343" s="16">
         <v>19</v>
       </c>
@@ -23662,7 +23818,7 @@
       <c r="AQ343" s="27"/>
     </row>
     <row r="344" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A344" s="44"/>
+      <c r="A344" s="47"/>
       <c r="B344" s="16">
         <v>20</v>
       </c>
@@ -23712,7 +23868,7 @@
       <c r="AQ344" s="27"/>
     </row>
     <row r="345" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A345" s="44"/>
+      <c r="A345" s="47"/>
       <c r="B345" s="16">
         <v>21</v>
       </c>
@@ -23762,7 +23918,7 @@
       <c r="AQ345" s="27"/>
     </row>
     <row r="346" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A346" s="44"/>
+      <c r="A346" s="47"/>
       <c r="B346" s="16">
         <v>22</v>
       </c>
@@ -23812,7 +23968,7 @@
       <c r="AQ346" s="27"/>
     </row>
     <row r="347" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A347" s="44"/>
+      <c r="A347" s="47"/>
       <c r="B347" s="16">
         <v>23</v>
       </c>
@@ -23862,7 +24018,7 @@
       <c r="AQ347" s="27"/>
     </row>
     <row r="348" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A348" s="44"/>
+      <c r="A348" s="47"/>
       <c r="B348" s="16">
         <v>24</v>
       </c>
@@ -23912,7 +24068,7 @@
       <c r="AQ348" s="27"/>
     </row>
     <row r="349" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A349" s="44"/>
+      <c r="A349" s="47"/>
       <c r="B349" s="16">
         <v>25</v>
       </c>
@@ -23962,7 +24118,7 @@
       <c r="AQ349" s="27"/>
     </row>
     <row r="350" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A350" s="44"/>
+      <c r="A350" s="47"/>
       <c r="B350" s="16">
         <v>26</v>
       </c>
@@ -24012,7 +24168,7 @@
       <c r="AQ350" s="27"/>
     </row>
     <row r="351" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A351" s="44"/>
+      <c r="A351" s="47"/>
       <c r="B351" s="16">
         <v>27</v>
       </c>
@@ -24062,7 +24218,7 @@
       <c r="AQ351" s="27"/>
     </row>
     <row r="352" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A352" s="44"/>
+      <c r="A352" s="47"/>
       <c r="B352" s="16">
         <v>28</v>
       </c>
@@ -24112,7 +24268,7 @@
       <c r="AQ352" s="27"/>
     </row>
     <row r="353" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A353" s="44"/>
+      <c r="A353" s="47"/>
       <c r="B353" s="16">
         <v>29</v>
       </c>
@@ -24162,7 +24318,7 @@
       <c r="AQ353" s="27"/>
     </row>
     <row r="354" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A354" s="44"/>
+      <c r="A354" s="47"/>
       <c r="B354" s="16">
         <v>30</v>
       </c>
@@ -24212,7 +24368,7 @@
       <c r="AQ354" s="27"/>
     </row>
     <row r="355" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A355" s="44"/>
+      <c r="A355" s="47"/>
       <c r="B355" s="16">
         <v>31</v>
       </c>
@@ -24262,7 +24418,7 @@
       <c r="AQ355" s="43"/>
     </row>
     <row r="356" spans="1:373" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="44"/>
+      <c r="A356" s="47"/>
       <c r="B356" s="21">
         <v>32</v>
       </c>
@@ -24659,7 +24815,7 @@
       <c r="NI356" s="4"/>
     </row>
     <row r="357" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A357" s="44"/>
+      <c r="A357" s="47"/>
       <c r="B357" s="16">
         <v>33</v>
       </c>
@@ -24726,7 +24882,7 @@
       </c>
     </row>
     <row r="358" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A358" s="44"/>
+      <c r="A358" s="47"/>
       <c r="B358" s="16">
         <v>34</v>
       </c>
@@ -24793,7 +24949,7 @@
       </c>
     </row>
     <row r="359" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A359" s="44"/>
+      <c r="A359" s="47"/>
       <c r="B359" s="16">
         <v>35</v>
       </c>
@@ -24860,7 +25016,7 @@
       </c>
     </row>
     <row r="360" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A360" s="44"/>
+      <c r="A360" s="47"/>
       <c r="B360" s="16">
         <v>36</v>
       </c>
@@ -24927,7 +25083,7 @@
       </c>
     </row>
     <row r="361" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A361" s="44"/>
+      <c r="A361" s="47"/>
       <c r="B361" s="16">
         <v>37</v>
       </c>
@@ -24994,7 +25150,7 @@
       </c>
     </row>
     <row r="362" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A362" s="44"/>
+      <c r="A362" s="47"/>
       <c r="B362" s="16">
         <v>38</v>
       </c>
@@ -25061,7 +25217,7 @@
       </c>
     </row>
     <row r="363" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A363" s="44"/>
+      <c r="A363" s="47"/>
       <c r="B363" s="16">
         <v>39</v>
       </c>
@@ -25128,7 +25284,7 @@
       </c>
     </row>
     <row r="364" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A364" s="44"/>
+      <c r="A364" s="47"/>
       <c r="B364" s="16">
         <v>40</v>
       </c>
@@ -25195,7 +25351,7 @@
       </c>
     </row>
     <row r="365" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A365" s="45">
+      <c r="A365" s="44">
         <v>10</v>
       </c>
       <c r="B365" s="21">
@@ -25247,7 +25403,7 @@
       <c r="AQ365" s="28"/>
     </row>
     <row r="366" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A366" s="46"/>
+      <c r="A366" s="45"/>
       <c r="B366" s="16">
         <v>2</v>
       </c>
@@ -25297,7 +25453,7 @@
       <c r="AQ366" s="27"/>
     </row>
     <row r="367" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A367" s="46"/>
+      <c r="A367" s="45"/>
       <c r="B367" s="16">
         <v>3</v>
       </c>
@@ -25347,7 +25503,7 @@
       <c r="AQ367" s="27"/>
     </row>
     <row r="368" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A368" s="46"/>
+      <c r="A368" s="45"/>
       <c r="B368" s="16">
         <v>4</v>
       </c>
@@ -25397,7 +25553,7 @@
       <c r="AQ368" s="27"/>
     </row>
     <row r="369" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A369" s="46"/>
+      <c r="A369" s="45"/>
       <c r="B369" s="16">
         <v>5</v>
       </c>
@@ -25447,7 +25603,7 @@
       <c r="AQ369" s="27"/>
     </row>
     <row r="370" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A370" s="46"/>
+      <c r="A370" s="45"/>
       <c r="B370" s="16">
         <v>6</v>
       </c>
@@ -25497,7 +25653,7 @@
       <c r="AQ370" s="27"/>
     </row>
     <row r="371" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A371" s="46"/>
+      <c r="A371" s="45"/>
       <c r="B371" s="16">
         <v>7</v>
       </c>
@@ -25547,7 +25703,7 @@
       <c r="AQ371" s="27"/>
     </row>
     <row r="372" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A372" s="46"/>
+      <c r="A372" s="45"/>
       <c r="B372" s="16">
         <v>8</v>
       </c>
@@ -25597,7 +25753,7 @@
       <c r="AQ372" s="27"/>
     </row>
     <row r="373" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A373" s="46"/>
+      <c r="A373" s="45"/>
       <c r="B373" s="16">
         <v>9</v>
       </c>
@@ -25647,7 +25803,7 @@
       <c r="AQ373" s="27"/>
     </row>
     <row r="374" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A374" s="46"/>
+      <c r="A374" s="45"/>
       <c r="B374" s="16">
         <v>10</v>
       </c>
@@ -25697,7 +25853,7 @@
       <c r="AQ374" s="27"/>
     </row>
     <row r="375" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A375" s="46"/>
+      <c r="A375" s="45"/>
       <c r="B375" s="16">
         <v>11</v>
       </c>
@@ -25747,7 +25903,7 @@
       <c r="AQ375" s="27"/>
     </row>
     <row r="376" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A376" s="46"/>
+      <c r="A376" s="45"/>
       <c r="B376" s="16">
         <v>12</v>
       </c>
@@ -25797,7 +25953,7 @@
       <c r="AQ376" s="27"/>
     </row>
     <row r="377" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A377" s="46"/>
+      <c r="A377" s="45"/>
       <c r="B377" s="16">
         <v>13</v>
       </c>
@@ -25847,7 +26003,7 @@
       <c r="AQ377" s="27"/>
     </row>
     <row r="378" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A378" s="46"/>
+      <c r="A378" s="45"/>
       <c r="B378" s="16">
         <v>14</v>
       </c>
@@ -25897,7 +26053,7 @@
       <c r="AQ378" s="27"/>
     </row>
     <row r="379" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A379" s="46"/>
+      <c r="A379" s="45"/>
       <c r="B379" s="16">
         <v>15</v>
       </c>
@@ -25947,7 +26103,7 @@
       <c r="AQ379" s="27"/>
     </row>
     <row r="380" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A380" s="46"/>
+      <c r="A380" s="45"/>
       <c r="B380" s="16">
         <v>16</v>
       </c>
@@ -25997,7 +26153,7 @@
       <c r="AQ380" s="27"/>
     </row>
     <row r="381" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A381" s="46"/>
+      <c r="A381" s="45"/>
       <c r="B381" s="16">
         <v>17</v>
       </c>
@@ -26047,7 +26203,7 @@
       <c r="AQ381" s="27"/>
     </row>
     <row r="382" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A382" s="46"/>
+      <c r="A382" s="45"/>
       <c r="B382" s="16">
         <v>18</v>
       </c>
@@ -26097,7 +26253,7 @@
       <c r="AQ382" s="27"/>
     </row>
     <row r="383" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A383" s="46"/>
+      <c r="A383" s="45"/>
       <c r="B383" s="16">
         <v>19</v>
       </c>
@@ -26147,7 +26303,7 @@
       <c r="AQ383" s="27"/>
     </row>
     <row r="384" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A384" s="46"/>
+      <c r="A384" s="45"/>
       <c r="B384" s="16">
         <v>20</v>
       </c>
@@ -26197,7 +26353,7 @@
       <c r="AQ384" s="27"/>
     </row>
     <row r="385" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A385" s="46"/>
+      <c r="A385" s="45"/>
       <c r="B385" s="16">
         <v>21</v>
       </c>
@@ -26247,7 +26403,7 @@
       <c r="AQ385" s="27"/>
     </row>
     <row r="386" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A386" s="46"/>
+      <c r="A386" s="45"/>
       <c r="B386" s="16">
         <v>22</v>
       </c>
@@ -26297,7 +26453,7 @@
       <c r="AQ386" s="27"/>
     </row>
     <row r="387" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A387" s="46"/>
+      <c r="A387" s="45"/>
       <c r="B387" s="16">
         <v>23</v>
       </c>
@@ -26347,7 +26503,7 @@
       <c r="AQ387" s="27"/>
     </row>
     <row r="388" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A388" s="46"/>
+      <c r="A388" s="45"/>
       <c r="B388" s="16">
         <v>24</v>
       </c>
@@ -26397,7 +26553,7 @@
       <c r="AQ388" s="27"/>
     </row>
     <row r="389" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A389" s="46"/>
+      <c r="A389" s="45"/>
       <c r="B389" s="16">
         <v>25</v>
       </c>
@@ -26447,7 +26603,7 @@
       <c r="AQ389" s="27"/>
     </row>
     <row r="390" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A390" s="46"/>
+      <c r="A390" s="45"/>
       <c r="B390" s="16">
         <v>26</v>
       </c>
@@ -26497,7 +26653,7 @@
       <c r="AQ390" s="27"/>
     </row>
     <row r="391" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A391" s="46"/>
+      <c r="A391" s="45"/>
       <c r="B391" s="16">
         <v>27</v>
       </c>
@@ -26547,7 +26703,7 @@
       <c r="AQ391" s="27"/>
     </row>
     <row r="392" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A392" s="46"/>
+      <c r="A392" s="45"/>
       <c r="B392" s="16">
         <v>28</v>
       </c>
@@ -26597,7 +26753,7 @@
       <c r="AQ392" s="27"/>
     </row>
     <row r="393" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A393" s="46"/>
+      <c r="A393" s="45"/>
       <c r="B393" s="16">
         <v>29</v>
       </c>
@@ -26647,7 +26803,7 @@
       <c r="AQ393" s="27"/>
     </row>
     <row r="394" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A394" s="46"/>
+      <c r="A394" s="45"/>
       <c r="B394" s="16">
         <v>30</v>
       </c>
@@ -26697,7 +26853,7 @@
       <c r="AQ394" s="27"/>
     </row>
     <row r="395" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A395" s="46"/>
+      <c r="A395" s="45"/>
       <c r="B395" s="16">
         <v>31</v>
       </c>
@@ -26747,7 +26903,7 @@
       <c r="AQ395" s="43"/>
     </row>
     <row r="396" spans="1:373" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A396" s="46"/>
+      <c r="A396" s="45"/>
       <c r="B396" s="21">
         <v>32</v>
       </c>
@@ -27144,7 +27300,7 @@
       <c r="NI396" s="4"/>
     </row>
     <row r="397" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A397" s="46"/>
+      <c r="A397" s="45"/>
       <c r="B397" s="16">
         <v>33</v>
       </c>
@@ -27211,7 +27367,7 @@
       </c>
     </row>
     <row r="398" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A398" s="46"/>
+      <c r="A398" s="45"/>
       <c r="B398" s="16">
         <v>34</v>
       </c>
@@ -27278,7 +27434,7 @@
       </c>
     </row>
     <row r="399" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A399" s="46"/>
+      <c r="A399" s="45"/>
       <c r="B399" s="16">
         <v>35</v>
       </c>
@@ -27345,7 +27501,7 @@
       </c>
     </row>
     <row r="400" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A400" s="46"/>
+      <c r="A400" s="45"/>
       <c r="B400" s="16">
         <v>36</v>
       </c>
@@ -27412,7 +27568,7 @@
       </c>
     </row>
     <row r="401" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A401" s="46"/>
+      <c r="A401" s="45"/>
       <c r="B401" s="16">
         <v>37</v>
       </c>
@@ -27479,7 +27635,7 @@
       </c>
     </row>
     <row r="402" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A402" s="46"/>
+      <c r="A402" s="45"/>
       <c r="B402" s="16">
         <v>38</v>
       </c>
@@ -27546,7 +27702,7 @@
       </c>
     </row>
     <row r="403" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A403" s="46"/>
+      <c r="A403" s="45"/>
       <c r="B403" s="16">
         <v>39</v>
       </c>
@@ -27613,7 +27769,7 @@
       </c>
     </row>
     <row r="404" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A404" s="47"/>
+      <c r="A404" s="46"/>
       <c r="B404" s="29">
         <v>40</v>
       </c>
@@ -27680,7 +27836,7 @@
       </c>
     </row>
     <row r="405" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A405" s="44">
+      <c r="A405" s="47">
         <v>11</v>
       </c>
       <c r="B405" s="16">
@@ -27732,7 +27888,7 @@
       <c r="AQ405" s="28"/>
     </row>
     <row r="406" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A406" s="44"/>
+      <c r="A406" s="47"/>
       <c r="B406" s="16">
         <v>2</v>
       </c>
@@ -27782,7 +27938,7 @@
       <c r="AQ406" s="27"/>
     </row>
     <row r="407" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A407" s="44"/>
+      <c r="A407" s="47"/>
       <c r="B407" s="16">
         <v>3</v>
       </c>
@@ -27832,7 +27988,7 @@
       <c r="AQ407" s="27"/>
     </row>
     <row r="408" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A408" s="44"/>
+      <c r="A408" s="47"/>
       <c r="B408" s="16">
         <v>4</v>
       </c>
@@ -27882,7 +28038,7 @@
       <c r="AQ408" s="27"/>
     </row>
     <row r="409" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A409" s="44"/>
+      <c r="A409" s="47"/>
       <c r="B409" s="16">
         <v>5</v>
       </c>
@@ -27932,7 +28088,7 @@
       <c r="AQ409" s="27"/>
     </row>
     <row r="410" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A410" s="44"/>
+      <c r="A410" s="47"/>
       <c r="B410" s="16">
         <v>6</v>
       </c>
@@ -27982,7 +28138,7 @@
       <c r="AQ410" s="27"/>
     </row>
     <row r="411" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A411" s="44"/>
+      <c r="A411" s="47"/>
       <c r="B411" s="16">
         <v>7</v>
       </c>
@@ -28032,7 +28188,7 @@
       <c r="AQ411" s="27"/>
     </row>
     <row r="412" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A412" s="44"/>
+      <c r="A412" s="47"/>
       <c r="B412" s="16">
         <v>8</v>
       </c>
@@ -28082,7 +28238,7 @@
       <c r="AQ412" s="27"/>
     </row>
     <row r="413" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A413" s="44"/>
+      <c r="A413" s="47"/>
       <c r="B413" s="16">
         <v>9</v>
       </c>
@@ -28132,7 +28288,7 @@
       <c r="AQ413" s="27"/>
     </row>
     <row r="414" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A414" s="44"/>
+      <c r="A414" s="47"/>
       <c r="B414" s="16">
         <v>10</v>
       </c>
@@ -28182,7 +28338,7 @@
       <c r="AQ414" s="27"/>
     </row>
     <row r="415" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A415" s="44"/>
+      <c r="A415" s="47"/>
       <c r="B415" s="16">
         <v>11</v>
       </c>
@@ -28232,7 +28388,7 @@
       <c r="AQ415" s="27"/>
     </row>
     <row r="416" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A416" s="44"/>
+      <c r="A416" s="47"/>
       <c r="B416" s="16">
         <v>12</v>
       </c>
@@ -28282,7 +28438,7 @@
       <c r="AQ416" s="27"/>
     </row>
     <row r="417" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A417" s="44"/>
+      <c r="A417" s="47"/>
       <c r="B417" s="16">
         <v>13</v>
       </c>
@@ -28332,7 +28488,7 @@
       <c r="AQ417" s="27"/>
     </row>
     <row r="418" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A418" s="44"/>
+      <c r="A418" s="47"/>
       <c r="B418" s="16">
         <v>14</v>
       </c>
@@ -28382,7 +28538,7 @@
       <c r="AQ418" s="27"/>
     </row>
     <row r="419" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A419" s="44"/>
+      <c r="A419" s="47"/>
       <c r="B419" s="16">
         <v>15</v>
       </c>
@@ -28432,7 +28588,7 @@
       <c r="AQ419" s="27"/>
     </row>
     <row r="420" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A420" s="44"/>
+      <c r="A420" s="47"/>
       <c r="B420" s="16">
         <v>16</v>
       </c>
@@ -28482,7 +28638,7 @@
       <c r="AQ420" s="27"/>
     </row>
     <row r="421" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A421" s="44"/>
+      <c r="A421" s="47"/>
       <c r="B421" s="16">
         <v>17</v>
       </c>
@@ -28532,7 +28688,7 @@
       <c r="AQ421" s="27"/>
     </row>
     <row r="422" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A422" s="44"/>
+      <c r="A422" s="47"/>
       <c r="B422" s="16">
         <v>18</v>
       </c>
@@ -28582,7 +28738,7 @@
       <c r="AQ422" s="27"/>
     </row>
     <row r="423" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A423" s="44"/>
+      <c r="A423" s="47"/>
       <c r="B423" s="16">
         <v>19</v>
       </c>
@@ -28632,7 +28788,7 @@
       <c r="AQ423" s="27"/>
     </row>
     <row r="424" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A424" s="44"/>
+      <c r="A424" s="47"/>
       <c r="B424" s="16">
         <v>20</v>
       </c>
@@ -28682,7 +28838,7 @@
       <c r="AQ424" s="27"/>
     </row>
     <row r="425" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A425" s="44"/>
+      <c r="A425" s="47"/>
       <c r="B425" s="16">
         <v>21</v>
       </c>
@@ -28732,7 +28888,7 @@
       <c r="AQ425" s="27"/>
     </row>
     <row r="426" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A426" s="44"/>
+      <c r="A426" s="47"/>
       <c r="B426" s="16">
         <v>22</v>
       </c>
@@ -28782,7 +28938,7 @@
       <c r="AQ426" s="27"/>
     </row>
     <row r="427" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A427" s="44"/>
+      <c r="A427" s="47"/>
       <c r="B427" s="16">
         <v>23</v>
       </c>
@@ -28832,7 +28988,7 @@
       <c r="AQ427" s="27"/>
     </row>
     <row r="428" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A428" s="44"/>
+      <c r="A428" s="47"/>
       <c r="B428" s="16">
         <v>24</v>
       </c>
@@ -28882,7 +29038,7 @@
       <c r="AQ428" s="27"/>
     </row>
     <row r="429" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A429" s="44"/>
+      <c r="A429" s="47"/>
       <c r="B429" s="16">
         <v>25</v>
       </c>
@@ -28932,7 +29088,7 @@
       <c r="AQ429" s="27"/>
     </row>
     <row r="430" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A430" s="44"/>
+      <c r="A430" s="47"/>
       <c r="B430" s="16">
         <v>26</v>
       </c>
@@ -28982,7 +29138,7 @@
       <c r="AQ430" s="27"/>
     </row>
     <row r="431" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A431" s="44"/>
+      <c r="A431" s="47"/>
       <c r="B431" s="16">
         <v>27</v>
       </c>
@@ -29032,7 +29188,7 @@
       <c r="AQ431" s="27"/>
     </row>
     <row r="432" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A432" s="44"/>
+      <c r="A432" s="47"/>
       <c r="B432" s="16">
         <v>28</v>
       </c>
@@ -29082,7 +29238,7 @@
       <c r="AQ432" s="27"/>
     </row>
     <row r="433" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A433" s="44"/>
+      <c r="A433" s="47"/>
       <c r="B433" s="16">
         <v>29</v>
       </c>
@@ -29132,7 +29288,7 @@
       <c r="AQ433" s="27"/>
     </row>
     <row r="434" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A434" s="44"/>
+      <c r="A434" s="47"/>
       <c r="B434" s="16">
         <v>30</v>
       </c>
@@ -29182,7 +29338,7 @@
       <c r="AQ434" s="27"/>
     </row>
     <row r="435" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A435" s="44"/>
+      <c r="A435" s="47"/>
       <c r="B435" s="16">
         <v>31</v>
       </c>
@@ -29232,7 +29388,7 @@
       <c r="AQ435" s="43"/>
     </row>
     <row r="436" spans="1:373" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A436" s="44"/>
+      <c r="A436" s="47"/>
       <c r="B436" s="21">
         <v>32</v>
       </c>
@@ -29629,7 +29785,7 @@
       <c r="NI436" s="4"/>
     </row>
     <row r="437" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A437" s="44"/>
+      <c r="A437" s="47"/>
       <c r="B437" s="16">
         <v>33</v>
       </c>
@@ -29696,7 +29852,7 @@
       </c>
     </row>
     <row r="438" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A438" s="44"/>
+      <c r="A438" s="47"/>
       <c r="B438" s="16">
         <v>34</v>
       </c>
@@ -29763,7 +29919,7 @@
       </c>
     </row>
     <row r="439" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A439" s="44"/>
+      <c r="A439" s="47"/>
       <c r="B439" s="16">
         <v>35</v>
       </c>
@@ -29830,7 +29986,7 @@
       </c>
     </row>
     <row r="440" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A440" s="44"/>
+      <c r="A440" s="47"/>
       <c r="B440" s="16">
         <v>36</v>
       </c>
@@ -29897,7 +30053,7 @@
       </c>
     </row>
     <row r="441" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A441" s="44"/>
+      <c r="A441" s="47"/>
       <c r="B441" s="16">
         <v>37</v>
       </c>
@@ -29964,7 +30120,7 @@
       </c>
     </row>
     <row r="442" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A442" s="44"/>
+      <c r="A442" s="47"/>
       <c r="B442" s="16">
         <v>38</v>
       </c>
@@ -30031,7 +30187,7 @@
       </c>
     </row>
     <row r="443" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A443" s="44"/>
+      <c r="A443" s="47"/>
       <c r="B443" s="16">
         <v>39</v>
       </c>
@@ -30098,7 +30254,7 @@
       </c>
     </row>
     <row r="444" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A444" s="44"/>
+      <c r="A444" s="47"/>
       <c r="B444" s="16">
         <v>40</v>
       </c>
@@ -30165,7 +30321,7 @@
       </c>
     </row>
     <row r="445" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A445" s="45">
+      <c r="A445" s="44">
         <v>12</v>
       </c>
       <c r="B445" s="21">
@@ -30217,7 +30373,7 @@
       <c r="AQ445" s="28"/>
     </row>
     <row r="446" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A446" s="46"/>
+      <c r="A446" s="45"/>
       <c r="B446" s="16">
         <v>2</v>
       </c>
@@ -30267,7 +30423,7 @@
       <c r="AQ446" s="27"/>
     </row>
     <row r="447" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A447" s="46"/>
+      <c r="A447" s="45"/>
       <c r="B447" s="16">
         <v>3</v>
       </c>
@@ -30317,7 +30473,7 @@
       <c r="AQ447" s="27"/>
     </row>
     <row r="448" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A448" s="46"/>
+      <c r="A448" s="45"/>
       <c r="B448" s="16">
         <v>4</v>
       </c>
@@ -30367,7 +30523,7 @@
       <c r="AQ448" s="27"/>
     </row>
     <row r="449" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A449" s="46"/>
+      <c r="A449" s="45"/>
       <c r="B449" s="16">
         <v>5</v>
       </c>
@@ -30417,7 +30573,7 @@
       <c r="AQ449" s="27"/>
     </row>
     <row r="450" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A450" s="46"/>
+      <c r="A450" s="45"/>
       <c r="B450" s="16">
         <v>6</v>
       </c>
@@ -30467,7 +30623,7 @@
       <c r="AQ450" s="27"/>
     </row>
     <row r="451" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A451" s="46"/>
+      <c r="A451" s="45"/>
       <c r="B451" s="16">
         <v>7</v>
       </c>
@@ -30517,7 +30673,7 @@
       <c r="AQ451" s="27"/>
     </row>
     <row r="452" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A452" s="46"/>
+      <c r="A452" s="45"/>
       <c r="B452" s="16">
         <v>8</v>
       </c>
@@ -30567,7 +30723,7 @@
       <c r="AQ452" s="27"/>
     </row>
     <row r="453" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A453" s="46"/>
+      <c r="A453" s="45"/>
       <c r="B453" s="16">
         <v>9</v>
       </c>
@@ -30617,7 +30773,7 @@
       <c r="AQ453" s="27"/>
     </row>
     <row r="454" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A454" s="46"/>
+      <c r="A454" s="45"/>
       <c r="B454" s="16">
         <v>10</v>
       </c>
@@ -30667,7 +30823,7 @@
       <c r="AQ454" s="27"/>
     </row>
     <row r="455" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A455" s="46"/>
+      <c r="A455" s="45"/>
       <c r="B455" s="16">
         <v>11</v>
       </c>
@@ -30717,7 +30873,7 @@
       <c r="AQ455" s="27"/>
     </row>
     <row r="456" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A456" s="46"/>
+      <c r="A456" s="45"/>
       <c r="B456" s="16">
         <v>12</v>
       </c>
@@ -30767,7 +30923,7 @@
       <c r="AQ456" s="27"/>
     </row>
     <row r="457" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A457" s="46"/>
+      <c r="A457" s="45"/>
       <c r="B457" s="16">
         <v>13</v>
       </c>
@@ -30817,7 +30973,7 @@
       <c r="AQ457" s="27"/>
     </row>
     <row r="458" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A458" s="46"/>
+      <c r="A458" s="45"/>
       <c r="B458" s="16">
         <v>14</v>
       </c>
@@ -30867,7 +31023,7 @@
       <c r="AQ458" s="27"/>
     </row>
     <row r="459" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A459" s="46"/>
+      <c r="A459" s="45"/>
       <c r="B459" s="16">
         <v>15</v>
       </c>
@@ -30917,7 +31073,7 @@
       <c r="AQ459" s="27"/>
     </row>
     <row r="460" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A460" s="46"/>
+      <c r="A460" s="45"/>
       <c r="B460" s="16">
         <v>16</v>
       </c>
@@ -30967,7 +31123,7 @@
       <c r="AQ460" s="27"/>
     </row>
     <row r="461" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A461" s="46"/>
+      <c r="A461" s="45"/>
       <c r="B461" s="16">
         <v>17</v>
       </c>
@@ -31017,7 +31173,7 @@
       <c r="AQ461" s="27"/>
     </row>
     <row r="462" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A462" s="46"/>
+      <c r="A462" s="45"/>
       <c r="B462" s="16">
         <v>18</v>
       </c>
@@ -31067,7 +31223,7 @@
       <c r="AQ462" s="27"/>
     </row>
     <row r="463" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A463" s="46"/>
+      <c r="A463" s="45"/>
       <c r="B463" s="16">
         <v>19</v>
       </c>
@@ -31117,7 +31273,7 @@
       <c r="AQ463" s="27"/>
     </row>
     <row r="464" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A464" s="46"/>
+      <c r="A464" s="45"/>
       <c r="B464" s="16">
         <v>20</v>
       </c>
@@ -31167,7 +31323,7 @@
       <c r="AQ464" s="27"/>
     </row>
     <row r="465" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A465" s="46"/>
+      <c r="A465" s="45"/>
       <c r="B465" s="16">
         <v>21</v>
       </c>
@@ -31217,7 +31373,7 @@
       <c r="AQ465" s="27"/>
     </row>
     <row r="466" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A466" s="46"/>
+      <c r="A466" s="45"/>
       <c r="B466" s="16">
         <v>22</v>
       </c>
@@ -31267,7 +31423,7 @@
       <c r="AQ466" s="27"/>
     </row>
     <row r="467" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A467" s="46"/>
+      <c r="A467" s="45"/>
       <c r="B467" s="16">
         <v>23</v>
       </c>
@@ -31317,7 +31473,7 @@
       <c r="AQ467" s="27"/>
     </row>
     <row r="468" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A468" s="46"/>
+      <c r="A468" s="45"/>
       <c r="B468" s="16">
         <v>24</v>
       </c>
@@ -31367,7 +31523,7 @@
       <c r="AQ468" s="27"/>
     </row>
     <row r="469" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A469" s="46"/>
+      <c r="A469" s="45"/>
       <c r="B469" s="16">
         <v>25</v>
       </c>
@@ -31417,7 +31573,7 @@
       <c r="AQ469" s="27"/>
     </row>
     <row r="470" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A470" s="46"/>
+      <c r="A470" s="45"/>
       <c r="B470" s="16">
         <v>26</v>
       </c>
@@ -31467,7 +31623,7 @@
       <c r="AQ470" s="27"/>
     </row>
     <row r="471" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A471" s="46"/>
+      <c r="A471" s="45"/>
       <c r="B471" s="16">
         <v>27</v>
       </c>
@@ -31517,7 +31673,7 @@
       <c r="AQ471" s="27"/>
     </row>
     <row r="472" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A472" s="46"/>
+      <c r="A472" s="45"/>
       <c r="B472" s="16">
         <v>28</v>
       </c>
@@ -31567,7 +31723,7 @@
       <c r="AQ472" s="27"/>
     </row>
     <row r="473" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A473" s="46"/>
+      <c r="A473" s="45"/>
       <c r="B473" s="16">
         <v>29</v>
       </c>
@@ -31617,7 +31773,7 @@
       <c r="AQ473" s="27"/>
     </row>
     <row r="474" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A474" s="46"/>
+      <c r="A474" s="45"/>
       <c r="B474" s="16">
         <v>30</v>
       </c>
@@ -31667,7 +31823,7 @@
       <c r="AQ474" s="27"/>
     </row>
     <row r="475" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A475" s="46"/>
+      <c r="A475" s="45"/>
       <c r="B475" s="16">
         <v>31</v>
       </c>
@@ -31717,7 +31873,7 @@
       <c r="AQ475" s="43"/>
     </row>
     <row r="476" spans="1:373" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A476" s="46"/>
+      <c r="A476" s="45"/>
       <c r="B476" s="21">
         <v>32</v>
       </c>
@@ -32114,7 +32270,7 @@
       <c r="NI476" s="4"/>
     </row>
     <row r="477" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A477" s="46"/>
+      <c r="A477" s="45"/>
       <c r="B477" s="16">
         <v>33</v>
       </c>
@@ -32181,7 +32337,7 @@
       </c>
     </row>
     <row r="478" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A478" s="46"/>
+      <c r="A478" s="45"/>
       <c r="B478" s="16">
         <v>34</v>
       </c>
@@ -32248,7 +32404,7 @@
       </c>
     </row>
     <row r="479" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A479" s="46"/>
+      <c r="A479" s="45"/>
       <c r="B479" s="16">
         <v>35</v>
       </c>
@@ -32315,7 +32471,7 @@
       </c>
     </row>
     <row r="480" spans="1:373" x14ac:dyDescent="0.2">
-      <c r="A480" s="46"/>
+      <c r="A480" s="45"/>
       <c r="B480" s="16">
         <v>36</v>
       </c>
@@ -32382,7 +32538,7 @@
       </c>
     </row>
     <row r="481" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A481" s="46"/>
+      <c r="A481" s="45"/>
       <c r="B481" s="16">
         <v>37</v>
       </c>
@@ -32449,7 +32605,7 @@
       </c>
     </row>
     <row r="482" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A482" s="46"/>
+      <c r="A482" s="45"/>
       <c r="B482" s="16">
         <v>38</v>
       </c>
@@ -32516,7 +32672,7 @@
       </c>
     </row>
     <row r="483" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="46"/>
+      <c r="A483" s="45"/>
       <c r="B483" s="16">
         <v>39</v>
       </c>
@@ -32583,7 +32739,7 @@
       </c>
     </row>
     <row r="484" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A484" s="47"/>
+      <c r="A484" s="46"/>
       <c r="B484" s="29">
         <v>40</v>
       </c>
@@ -32755,6 +32911,7 @@
     <row r="588" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A325:A364"/>
     <mergeCell ref="A365:A404"/>
     <mergeCell ref="A405:A444"/>
     <mergeCell ref="A445:A484"/>
@@ -32771,7 +32928,6 @@
     <mergeCell ref="A205:A244"/>
     <mergeCell ref="A245:A284"/>
     <mergeCell ref="A285:A324"/>
-    <mergeCell ref="A325:A364"/>
   </mergeCells>
   <conditionalFormatting sqref="AI2:AQ2">
     <cfRule type="colorScale" priority="36">
